--- a/Test Cases/Rijo/Test Case - Theatre.xlsx
+++ b/Test Cases/Rijo/Test Case - Theatre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\CentralRepository-Mediware\Test Case\Rijo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\Mediware-Repository\Test Cases\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B1A12-8E51-4890-9BF6-64A7FA5336AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E85E0C-27D6-4860-96A1-75D326ACB990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="600">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2344,6 +2344,39 @@
   </si>
   <si>
     <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Search&gt;&gt;Nursing Station Wise Patient List</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_096</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Stock Consumption</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_097</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to view and cancel patient consumption </t>
+  </si>
+  <si>
+    <t>Patient consumption form should be displayed</t>
+  </si>
+  <si>
+    <t>Patient consumption should be saved successfully</t>
+  </si>
+  <si>
+    <t>Previous patient consumption should be listed</t>
+  </si>
+  <si>
+    <t>Enter the patient number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient should be selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user is able to add the patient consumption </t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2599,6 +2632,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2653,7 +2692,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Simple Retail</a:t>
+              <a:t>Mediware</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2721,7 +2760,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3572,7 @@
       </c>
       <c r="B2" s="18">
         <f>Theatre!O2</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="18">
         <f>Theatre!O3</f>
@@ -3561,27 +3600,27 @@
         <v>22</v>
       </c>
       <c r="B3" s="6">
-        <f>SUM(B2:B2)</f>
-        <v>96</v>
+        <f t="shared" ref="B3:G3" si="0">SUM(B2:B2)</f>
+        <v>99</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C2:C2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(D2:D2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM(E2:E2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>SUM(F2:F2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f>SUM(G2:G2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3598,16 +3637,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3623,9 +3662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R710"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C692" sqref="C692"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,7 +3739,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -3722,7 +3761,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="26" t="s">
         <v>12</v>
@@ -3736,7 +3775,7 @@
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3772,7 +3811,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3802,7 +3841,7 @@
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="44"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -3828,7 +3867,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -3935,7 +3974,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -3949,7 +3988,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -3964,7 +4003,7 @@
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -3982,7 +4021,7 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4010,7 +4049,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4025,7 +4064,7 @@
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4041,7 +4080,7 @@
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4060,7 +4099,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4076,7 +4115,7 @@
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4104,7 +4143,7 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="44" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
@@ -4118,7 +4157,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4133,7 +4172,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4151,7 +4190,7 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4166,7 +4205,7 @@
     </row>
     <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4181,7 +4220,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4196,7 +4235,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4224,7 +4263,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="44" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4238,7 +4277,7 @@
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="42"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4253,7 +4292,7 @@
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4271,7 +4310,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4286,7 +4325,7 @@
     </row>
     <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4301,7 +4340,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4316,7 +4355,7 @@
     </row>
     <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4331,7 +4370,7 @@
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="42"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4346,7 +4385,7 @@
     </row>
     <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4374,7 +4413,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4388,7 +4427,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4403,7 +4442,7 @@
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4418,7 +4457,7 @@
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="42"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4433,7 +4472,7 @@
     </row>
     <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="42"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4451,7 +4490,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4469,7 +4508,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4484,7 +4523,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4499,7 +4538,7 @@
     </row>
     <row r="50" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4527,7 +4566,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4541,7 +4580,7 @@
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="42"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4556,7 +4595,7 @@
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="42"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4571,7 +4610,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4586,7 +4625,7 @@
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="42"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4604,7 +4643,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="42"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4622,7 +4661,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="42"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4637,7 +4676,7 @@
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4652,7 +4691,7 @@
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4667,7 +4706,7 @@
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="42"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4695,7 +4734,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="44" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -4709,7 +4748,7 @@
     </row>
     <row r="64" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -4724,7 +4763,7 @@
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -4739,7 +4778,7 @@
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="42"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -4754,7 +4793,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="42"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -4782,7 +4821,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -4796,7 +4835,7 @@
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="42"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -4811,7 +4850,7 @@
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="42"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -4826,7 +4865,7 @@
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="42"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -4841,7 +4880,7 @@
     </row>
     <row r="73" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -4856,7 +4895,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="42"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -4884,7 +4923,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="44" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -4898,7 +4937,7 @@
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="42"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -4913,7 +4952,7 @@
     </row>
     <row r="78" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -4928,7 +4967,7 @@
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -4956,7 +4995,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="44" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -4970,7 +5009,7 @@
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="42"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -4985,7 +5024,7 @@
     </row>
     <row r="83" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="42"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5000,7 +5039,7 @@
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="42"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5029,7 +5068,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5043,7 +5082,7 @@
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="42"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5058,7 +5097,7 @@
     </row>
     <row r="88" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5073,7 +5112,7 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="42"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5088,7 +5127,7 @@
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="42"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5106,7 +5145,7 @@
     </row>
     <row r="91" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="42"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5124,7 +5163,7 @@
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="42"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5152,7 +5191,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5166,7 +5205,7 @@
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="42"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5181,7 +5220,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="42"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5196,7 +5235,7 @@
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="42"/>
+      <c r="D97" s="44"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5211,7 +5250,7 @@
     </row>
     <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="42"/>
+      <c r="D98" s="44"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5229,7 +5268,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="42"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5247,7 +5286,7 @@
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="42"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5262,7 +5301,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="42"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5290,7 +5329,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5304,7 +5343,7 @@
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="42"/>
+      <c r="D104" s="44"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5319,7 +5358,7 @@
     </row>
     <row r="105" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="42"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5334,7 +5373,7 @@
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="42"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5349,7 +5388,7 @@
     </row>
     <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="42"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5367,7 +5406,7 @@
     </row>
     <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="42"/>
+      <c r="D108" s="44"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5385,7 +5424,7 @@
     </row>
     <row r="109" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="42"/>
+      <c r="D109" s="44"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5400,7 +5439,7 @@
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="42"/>
+      <c r="D110" s="44"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5428,7 +5467,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="44" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5442,7 +5481,7 @@
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="42"/>
+      <c r="D113" s="44"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5457,7 +5496,7 @@
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="42"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5472,7 +5511,7 @@
     </row>
     <row r="115" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="42"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5487,7 +5526,7 @@
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="42"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5502,7 +5541,7 @@
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="42"/>
+      <c r="D117" s="44"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5530,7 +5569,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="44" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -5544,7 +5583,7 @@
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="42"/>
+      <c r="D120" s="44"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5559,7 +5598,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="42"/>
+      <c r="D121" s="44"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5574,7 +5613,7 @@
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="42"/>
+      <c r="D122" s="44"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5589,7 +5628,7 @@
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="42"/>
+      <c r="D123" s="44"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5604,7 +5643,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="42"/>
+      <c r="D124" s="44"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5619,7 +5658,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="42"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -5647,7 +5686,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="42" t="s">
+      <c r="D127" s="44" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -5661,7 +5700,7 @@
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="42"/>
+      <c r="D128" s="44"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -5676,7 +5715,7 @@
     </row>
     <row r="129" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="42"/>
+      <c r="D129" s="44"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -5691,7 +5730,7 @@
     </row>
     <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="42"/>
+      <c r="D130" s="44"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -5706,7 +5745,7 @@
     </row>
     <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="42"/>
+      <c r="D131" s="44"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -5721,7 +5760,7 @@
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="42"/>
+      <c r="D132" s="44"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -5736,7 +5775,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="42"/>
+      <c r="D133" s="44"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -5764,7 +5803,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="42" t="s">
+      <c r="D135" s="44" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -5778,7 +5817,7 @@
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="42"/>
+      <c r="D136" s="44"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -5793,7 +5832,7 @@
     </row>
     <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="42"/>
+      <c r="D137" s="44"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -5808,7 +5847,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="42"/>
+      <c r="D138" s="44"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -5823,7 +5862,7 @@
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="42"/>
+      <c r="D139" s="44"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -5841,7 +5880,7 @@
     </row>
     <row r="140" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="42"/>
+      <c r="D140" s="44"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -5859,7 +5898,7 @@
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="42"/>
+      <c r="D141" s="44"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -5877,7 +5916,7 @@
     </row>
     <row r="142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="42"/>
+      <c r="D142" s="44"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -5895,7 +5934,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -5913,7 +5952,7 @@
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="42"/>
+      <c r="D144" s="44"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -5941,7 +5980,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="44" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -5955,7 +5994,7 @@
     </row>
     <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="42"/>
+      <c r="D147" s="44"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -5970,7 +6009,7 @@
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="42"/>
+      <c r="D148" s="44"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -5985,7 +6024,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="42"/>
+      <c r="D149" s="44"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6000,7 +6039,7 @@
     </row>
     <row r="150" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="42"/>
+      <c r="D150" s="44"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6018,7 +6057,7 @@
     </row>
     <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="42"/>
+      <c r="D151" s="44"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6036,7 +6075,7 @@
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="42"/>
+      <c r="D152" s="44"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6054,7 +6093,7 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="42"/>
+      <c r="D153" s="44"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6072,7 +6111,7 @@
     </row>
     <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="42"/>
+      <c r="D154" s="44"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6090,7 +6129,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="42"/>
+      <c r="D155" s="44"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6105,7 +6144,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="42"/>
+      <c r="D156" s="44"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6135,7 +6174,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="42" t="s">
+      <c r="D158" s="44" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6149,7 +6188,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="42"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6164,7 +6203,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="42"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6179,7 +6218,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="42"/>
+      <c r="D161" s="44"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6194,7 +6233,7 @@
     </row>
     <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="42"/>
+      <c r="D162" s="44"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6212,7 +6251,7 @@
     </row>
     <row r="163" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="42"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6230,7 +6269,7 @@
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="42"/>
+      <c r="D164" s="44"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6250,7 +6289,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="42"/>
+      <c r="D165" s="44"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6270,7 +6309,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="42"/>
+      <c r="D166" s="44"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6290,7 +6329,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="42"/>
+      <c r="D167" s="44"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6307,7 +6346,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="42"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6336,7 +6375,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="42" t="s">
+      <c r="D170" s="44" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6350,7 +6389,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="42"/>
+      <c r="D171" s="44"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6365,7 +6404,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="42"/>
+      <c r="D172" s="44"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6380,7 +6419,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="42"/>
+      <c r="D173" s="44"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6395,7 +6434,7 @@
     </row>
     <row r="174" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="42"/>
+      <c r="D174" s="44"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6413,7 +6452,7 @@
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="42"/>
+      <c r="D175" s="44"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6431,7 +6470,7 @@
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="42"/>
+      <c r="D176" s="44"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6449,7 +6488,7 @@
     </row>
     <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="42"/>
+      <c r="D177" s="44"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6467,7 +6506,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="42"/>
+      <c r="D178" s="44"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6485,7 +6524,7 @@
     </row>
     <row r="179" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="44"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6500,7 +6539,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="42"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6528,7 +6567,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="42" t="s">
+      <c r="D182" s="44" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -6542,7 +6581,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="42"/>
+      <c r="D183" s="44"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6557,7 +6596,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="42"/>
+      <c r="D184" s="44"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6572,7 +6611,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="42"/>
+      <c r="D185" s="44"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6587,7 +6626,7 @@
     </row>
     <row r="186" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="42"/>
+      <c r="D186" s="44"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6605,7 +6644,7 @@
     </row>
     <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="42"/>
+      <c r="D187" s="44"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6623,7 +6662,7 @@
     </row>
     <row r="188" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="42"/>
+      <c r="D188" s="44"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6641,7 +6680,7 @@
     </row>
     <row r="189" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="42"/>
+      <c r="D189" s="44"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -6659,7 +6698,7 @@
     </row>
     <row r="190" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="42"/>
+      <c r="D190" s="44"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -6677,7 +6716,7 @@
     </row>
     <row r="191" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="42"/>
+      <c r="D191" s="44"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -6692,7 +6731,7 @@
     </row>
     <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="42"/>
+      <c r="D192" s="44"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -6707,7 +6746,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="42"/>
+      <c r="D193" s="44"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -6737,7 +6776,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="42" t="s">
+      <c r="D195" s="44" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -6751,7 +6790,7 @@
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="42"/>
+      <c r="D196" s="44"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -6766,7 +6805,7 @@
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="42"/>
+      <c r="D197" s="44"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -6781,7 +6820,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="42"/>
+      <c r="D198" s="44"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -6796,7 +6835,7 @@
     </row>
     <row r="199" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="42"/>
+      <c r="D199" s="44"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -6814,7 +6853,7 @@
     </row>
     <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="42"/>
+      <c r="D200" s="44"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -6832,7 +6871,7 @@
     </row>
     <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="42"/>
+      <c r="D201" s="44"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -6852,7 +6891,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="42"/>
+      <c r="D202" s="44"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -6872,7 +6911,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="42"/>
+      <c r="D203" s="44"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -6892,7 +6931,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="42"/>
+      <c r="D204" s="44"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -6909,7 +6948,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="42"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -6926,7 +6965,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="42"/>
+      <c r="D206" s="44"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -6955,7 +6994,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="42" t="s">
+      <c r="D208" s="44" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -6969,7 +7008,7 @@
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="42"/>
+      <c r="D209" s="44"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -6984,7 +7023,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="42"/>
+      <c r="D210" s="44"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -6999,7 +7038,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="42"/>
+      <c r="D211" s="44"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7014,7 +7053,7 @@
     </row>
     <row r="212" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="42"/>
+      <c r="D212" s="44"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7032,7 +7071,7 @@
     </row>
     <row r="213" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="42"/>
+      <c r="D213" s="44"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7050,7 +7089,7 @@
     </row>
     <row r="214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="42"/>
+      <c r="D214" s="44"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7065,7 +7104,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="42"/>
+      <c r="D215" s="44"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7080,7 +7119,7 @@
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="42"/>
+      <c r="D216" s="44"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7108,7 +7147,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="42" t="s">
+      <c r="D218" s="44" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7122,7 +7161,7 @@
     </row>
     <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="42"/>
+      <c r="D219" s="44"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7137,7 +7176,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="42"/>
+      <c r="D220" s="44"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7152,7 +7191,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="42"/>
+      <c r="D221" s="44"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7167,7 +7206,7 @@
     </row>
     <row r="222" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="42"/>
+      <c r="D222" s="44"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7185,7 +7224,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="42"/>
+      <c r="D223" s="44"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7203,7 +7242,7 @@
     </row>
     <row r="224" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="42"/>
+      <c r="D224" s="44"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7218,7 +7257,7 @@
     </row>
     <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="42"/>
+      <c r="D225" s="44"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7233,7 +7272,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="42"/>
+      <c r="D226" s="44"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7248,7 +7287,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="42"/>
+      <c r="D227" s="44"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7278,7 +7317,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="42" t="s">
+      <c r="D229" s="44" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7292,7 +7331,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="42"/>
+      <c r="D230" s="44"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7307,7 +7346,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="42"/>
+      <c r="D231" s="44"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7322,7 +7361,7 @@
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="42"/>
+      <c r="D232" s="44"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7337,7 +7376,7 @@
     </row>
     <row r="233" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="42"/>
+      <c r="D233" s="44"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7355,7 +7394,7 @@
     </row>
     <row r="234" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="42"/>
+      <c r="D234" s="44"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7373,7 +7412,7 @@
     </row>
     <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="42"/>
+      <c r="D235" s="44"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7390,7 +7429,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="42"/>
+      <c r="D236" s="44"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7407,7 +7446,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="42"/>
+      <c r="D237" s="44"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7424,7 +7463,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="42"/>
+      <c r="D238" s="44"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7453,7 +7492,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="42" t="s">
+      <c r="D240" s="44" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7467,7 +7506,7 @@
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="42"/>
+      <c r="D241" s="44"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7482,7 +7521,7 @@
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="42"/>
+      <c r="D242" s="44"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7497,7 +7536,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="42"/>
+      <c r="D243" s="44"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7512,7 +7551,7 @@
     </row>
     <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="42"/>
+      <c r="D244" s="44"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7530,7 +7569,7 @@
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="42"/>
+      <c r="D245" s="44"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7558,7 +7597,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="42" t="s">
+      <c r="D247" s="44" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -7572,7 +7611,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="42"/>
+      <c r="D248" s="44"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7587,7 +7626,7 @@
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="42"/>
+      <c r="D249" s="44"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7602,7 +7641,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="42"/>
+      <c r="D250" s="44"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7617,7 +7656,7 @@
     </row>
     <row r="251" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="42"/>
+      <c r="D251" s="44"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7635,7 +7674,7 @@
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="42"/>
+      <c r="D252" s="44"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -7650,7 +7689,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="42"/>
+      <c r="D253" s="44"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -7680,7 +7719,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="42" t="s">
+      <c r="D255" s="44" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -7694,7 +7733,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="42"/>
+      <c r="D256" s="44"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -7709,7 +7748,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="42"/>
+      <c r="D257" s="44"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -7724,7 +7763,7 @@
     </row>
     <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="42"/>
+      <c r="D258" s="44"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -7739,7 +7778,7 @@
     </row>
     <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="42"/>
+      <c r="D259" s="44"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -7757,7 +7796,7 @@
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="42"/>
+      <c r="D260" s="44"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -7774,7 +7813,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="42"/>
+      <c r="D261" s="44"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -7803,7 +7842,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="42" t="s">
+      <c r="D263" s="44" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -7817,7 +7856,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="42"/>
+      <c r="D264" s="44"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -7832,7 +7871,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="42"/>
+      <c r="D265" s="44"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -7847,7 +7886,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="42"/>
+      <c r="D266" s="44"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -7862,7 +7901,7 @@
     </row>
     <row r="267" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="42"/>
+      <c r="D267" s="44"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -7880,7 +7919,7 @@
     </row>
     <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="42"/>
+      <c r="D268" s="44"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -7895,7 +7934,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="42"/>
+      <c r="D269" s="44"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -7923,7 +7962,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="42" t="s">
+      <c r="D271" s="44" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -7937,7 +7976,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="42"/>
+      <c r="D272" s="44"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -7952,7 +7991,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="42"/>
+      <c r="D273" s="44"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -7967,7 +8006,7 @@
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="42"/>
+      <c r="D274" s="44"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -7982,7 +8021,7 @@
     </row>
     <row r="275" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="42"/>
+      <c r="D275" s="44"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8000,7 +8039,7 @@
     </row>
     <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="42"/>
+      <c r="D276" s="44"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8015,7 +8054,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="42"/>
+      <c r="D277" s="44"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8030,7 +8069,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="42"/>
+      <c r="D278" s="44"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8060,7 +8099,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="42" t="s">
+      <c r="D280" s="44" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8074,7 +8113,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="42"/>
+      <c r="D281" s="44"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8089,7 +8128,7 @@
     </row>
     <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="42"/>
+      <c r="D282" s="44"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8104,7 +8143,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="42"/>
+      <c r="D283" s="44"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8119,7 +8158,7 @@
     </row>
     <row r="284" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="42"/>
+      <c r="D284" s="44"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8137,7 +8176,7 @@
     </row>
     <row r="285" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="42"/>
+      <c r="D285" s="44"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8152,7 +8191,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="42"/>
+      <c r="D286" s="44"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8169,7 +8208,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="42"/>
+      <c r="D287" s="44"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8198,7 +8237,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="42" t="s">
+      <c r="D289" s="44" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8212,7 +8251,7 @@
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="42"/>
+      <c r="D290" s="44"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8227,7 +8266,7 @@
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="42"/>
+      <c r="D291" s="44"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8242,7 +8281,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="42"/>
+      <c r="D292" s="44"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8257,7 +8296,7 @@
     </row>
     <row r="293" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="42"/>
+      <c r="D293" s="44"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8272,7 +8311,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="42"/>
+      <c r="D294" s="44"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8300,7 +8339,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="42" t="s">
+      <c r="D296" s="44" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8314,7 +8353,7 @@
     </row>
     <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="42"/>
+      <c r="D297" s="44"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8329,7 +8368,7 @@
     </row>
     <row r="298" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="42"/>
+      <c r="D298" s="44"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8344,7 +8383,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="42"/>
+      <c r="D299" s="44"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8359,7 +8398,7 @@
     </row>
     <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="42"/>
+      <c r="D300" s="44"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8374,7 +8413,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="42"/>
+      <c r="D301" s="44"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8389,7 +8428,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="42"/>
+      <c r="D302" s="44"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8419,7 +8458,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="42" t="s">
+      <c r="D304" s="44" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8433,7 +8472,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="42"/>
+      <c r="D305" s="44"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8448,7 +8487,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="42"/>
+      <c r="D306" s="44"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8463,7 +8502,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="42"/>
+      <c r="D307" s="44"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8478,7 +8517,7 @@
     </row>
     <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="42"/>
+      <c r="D308" s="44"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8493,7 +8532,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="42"/>
+      <c r="D309" s="44"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8510,7 +8549,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="42"/>
+      <c r="D310" s="44"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8546,7 +8585,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="42" t="s">
+      <c r="D312" s="44" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -8560,7 +8599,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="42"/>
+      <c r="D313" s="44"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8575,7 +8614,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="42"/>
+      <c r="D314" s="44"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8590,7 +8629,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="42"/>
+      <c r="D315" s="44"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8605,7 +8644,7 @@
     </row>
     <row r="316" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="42"/>
+      <c r="D316" s="44"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8623,7 +8662,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="42"/>
+      <c r="D317" s="44"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -8651,7 +8690,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="42" t="s">
+      <c r="D319" s="44" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -8665,7 +8704,7 @@
     </row>
     <row r="320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="42"/>
+      <c r="D320" s="44"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -8680,7 +8719,7 @@
     </row>
     <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="42"/>
+      <c r="D321" s="44"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -8695,7 +8734,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="42"/>
+      <c r="D322" s="44"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -8710,7 +8749,7 @@
     </row>
     <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="42"/>
+      <c r="D323" s="44"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -8728,7 +8767,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="42"/>
+      <c r="D324" s="44"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -8743,7 +8782,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="42"/>
+      <c r="D325" s="44"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -8773,7 +8812,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="42" t="s">
+      <c r="D327" s="44" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -8787,7 +8826,7 @@
     </row>
     <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="42"/>
+      <c r="D328" s="44"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -8802,7 +8841,7 @@
     </row>
     <row r="329" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="42"/>
+      <c r="D329" s="44"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -8817,7 +8856,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="42"/>
+      <c r="D330" s="44"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -8832,7 +8871,7 @@
     </row>
     <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="42"/>
+      <c r="D331" s="44"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -8850,7 +8889,7 @@
     </row>
     <row r="332" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="42"/>
+      <c r="D332" s="44"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -8867,7 +8906,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="42"/>
+      <c r="D333" s="44"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -8896,7 +8935,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="42" t="s">
+      <c r="D335" s="44" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -8910,7 +8949,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="42"/>
+      <c r="D336" s="44"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -8925,7 +8964,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="42"/>
+      <c r="D337" s="44"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -8940,7 +8979,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="42"/>
+      <c r="D338" s="44"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -8955,7 +8994,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="42"/>
+      <c r="D339" s="44"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -8970,7 +9009,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="42"/>
+      <c r="D340" s="44"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -8998,7 +9037,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="42" t="s">
+      <c r="D342" s="44" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9012,7 +9051,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="42"/>
+      <c r="D343" s="44"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9027,7 +9066,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="42"/>
+      <c r="D344" s="44"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9042,7 +9081,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="42"/>
+      <c r="D345" s="44"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9057,7 +9096,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="42"/>
+      <c r="D346" s="44"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9072,7 +9111,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="42"/>
+      <c r="D347" s="44"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9087,7 +9126,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="42"/>
+      <c r="D348" s="44"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9117,7 +9156,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="42" t="s">
+      <c r="D350" s="44" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9131,7 +9170,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="42"/>
+      <c r="D351" s="44"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9146,7 +9185,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="42"/>
+      <c r="D352" s="44"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9161,7 +9200,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="42"/>
+      <c r="D353" s="44"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9176,7 +9215,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="42"/>
+      <c r="D354" s="44"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9191,7 +9230,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="42"/>
+      <c r="D355" s="44"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9208,7 +9247,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="42"/>
+      <c r="D356" s="44"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9236,7 +9275,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="42" t="s">
+      <c r="D358" s="44" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9250,7 +9289,7 @@
     </row>
     <row r="359" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="42"/>
+      <c r="D359" s="44"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9265,7 +9304,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="42"/>
+      <c r="D360" s="44"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9280,7 +9319,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="42"/>
+      <c r="D361" s="44"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9295,7 +9334,7 @@
     </row>
     <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="42"/>
+      <c r="D362" s="44"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9310,7 +9349,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="42"/>
+      <c r="D363" s="44"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9338,7 +9377,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="42" t="s">
+      <c r="D365" s="44" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9352,7 +9391,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="42"/>
+      <c r="D366" s="44"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9367,7 +9406,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="42"/>
+      <c r="D367" s="44"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9382,7 +9421,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="42"/>
+      <c r="D368" s="44"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9397,7 +9436,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="42"/>
+      <c r="D369" s="44"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9412,7 +9451,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="42"/>
+      <c r="D370" s="44"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9427,7 +9466,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="42"/>
+      <c r="D371" s="44"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9457,7 +9496,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="42" t="s">
+      <c r="D373" s="44" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9471,7 +9510,7 @@
     </row>
     <row r="374" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="42"/>
+      <c r="D374" s="44"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9486,7 +9525,7 @@
     </row>
     <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="42"/>
+      <c r="D375" s="44"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9501,7 +9540,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="42"/>
+      <c r="D376" s="44"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9516,7 +9555,7 @@
     </row>
     <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="42"/>
+      <c r="D377" s="44"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9531,7 +9570,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="42"/>
+      <c r="D378" s="44"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9548,7 +9587,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="42"/>
+      <c r="D379" s="44"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9576,7 +9615,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="42" t="s">
+      <c r="D381" s="44" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -9590,7 +9629,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="42"/>
+      <c r="D382" s="44"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9605,7 +9644,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="42"/>
+      <c r="D383" s="44"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9620,7 +9659,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="42"/>
+      <c r="D384" s="44"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9635,7 +9674,7 @@
     </row>
     <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="42"/>
+      <c r="D385" s="44"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -9650,7 +9689,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="42"/>
+      <c r="D386" s="44"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -9678,7 +9717,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="42" t="s">
+      <c r="D388" s="44" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -9692,7 +9731,7 @@
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="42"/>
+      <c r="D389" s="44"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -9707,7 +9746,7 @@
     </row>
     <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="42"/>
+      <c r="D390" s="44"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -9722,7 +9761,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="42"/>
+      <c r="D391" s="44"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -9737,7 +9776,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="42"/>
+      <c r="D392" s="44"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -9752,7 +9791,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="42"/>
+      <c r="D393" s="44"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -9767,7 +9806,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="42"/>
+      <c r="D394" s="44"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -9797,7 +9836,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="42" t="s">
+      <c r="D396" s="44" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -9811,7 +9850,7 @@
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="42"/>
+      <c r="D397" s="44"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -9826,7 +9865,7 @@
     </row>
     <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="42"/>
+      <c r="D398" s="44"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -9841,7 +9880,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="42"/>
+      <c r="D399" s="44"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -9856,7 +9895,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="42"/>
+      <c r="D400" s="44"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -9871,7 +9910,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="42"/>
+      <c r="D401" s="44"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -9888,7 +9927,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="42"/>
+      <c r="D402" s="44"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -9916,7 +9955,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="42" t="s">
+      <c r="D404" s="44" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -9931,7 +9970,7 @@
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="42"/>
+      <c r="D405" s="44"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -9947,7 +9986,7 @@
     <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="42"/>
+      <c r="D406" s="44"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -9963,7 +10002,7 @@
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="42"/>
+      <c r="D407" s="44"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -9979,7 +10018,7 @@
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="42"/>
+      <c r="D408" s="44"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10008,7 +10047,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="42" t="s">
+      <c r="D410" s="44" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10023,7 +10062,7 @@
     <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="42"/>
+      <c r="D411" s="44"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10039,7 +10078,7 @@
     <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="42"/>
+      <c r="D412" s="44"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10055,7 +10094,7 @@
     <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="42"/>
+      <c r="D413" s="44"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10071,7 +10110,7 @@
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="42"/>
+      <c r="D414" s="44"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10101,7 +10140,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="42" t="s">
+      <c r="D416" s="44" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10116,7 +10155,7 @@
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="42"/>
+      <c r="D417" s="44"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10132,7 +10171,7 @@
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="42"/>
+      <c r="D418" s="44"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10148,7 +10187,7 @@
     <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="42"/>
+      <c r="D419" s="44"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10164,7 +10203,7 @@
     <row r="420" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="42"/>
+      <c r="D420" s="44"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10192,7 +10231,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="42" t="s">
+      <c r="D422" s="44" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10207,7 +10246,7 @@
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="42"/>
+      <c r="D423" s="44"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10223,7 +10262,7 @@
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="42"/>
+      <c r="D424" s="44"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10239,7 +10278,7 @@
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="42"/>
+      <c r="D425" s="44"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10255,7 +10294,7 @@
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="42"/>
+      <c r="D426" s="44"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10283,7 +10322,7 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="42" t="s">
+      <c r="D428" s="44" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
@@ -10298,7 +10337,7 @@
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="42"/>
+      <c r="D429" s="44"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10314,7 +10353,7 @@
     <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="42"/>
+      <c r="D430" s="44"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10330,7 +10369,7 @@
     <row r="431" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="42"/>
+      <c r="D431" s="44"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10346,7 +10385,7 @@
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="42"/>
+      <c r="D432" s="44"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10376,7 +10415,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="42" t="s">
+      <c r="D434" s="44" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10390,7 +10429,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="42"/>
+      <c r="D435" s="44"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10405,7 +10444,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="42"/>
+      <c r="D436" s="44"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10420,7 +10459,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="42"/>
+      <c r="D437" s="44"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10435,7 +10474,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="42"/>
+      <c r="D438" s="44"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10464,7 +10503,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="42" t="s">
+      <c r="D440" s="44" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -10478,7 +10517,7 @@
     </row>
     <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="42"/>
+      <c r="D441" s="44"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10493,7 +10532,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="42"/>
+      <c r="D442" s="44"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10508,7 +10547,7 @@
     </row>
     <row r="443" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="42"/>
+      <c r="D443" s="44"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10523,7 +10562,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="42"/>
+      <c r="D444" s="44"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -10551,7 +10590,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="42" t="s">
+      <c r="D446" s="44" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -10565,7 +10604,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="42"/>
+      <c r="D447" s="44"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -10580,7 +10619,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="42"/>
+      <c r="D448" s="44"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -10595,7 +10634,7 @@
     </row>
     <row r="449" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="42"/>
+      <c r="D449" s="44"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -10610,7 +10649,7 @@
     </row>
     <row r="450" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="42"/>
+      <c r="D450" s="44"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -10638,7 +10677,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="42" t="s">
+      <c r="D452" s="44" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -10652,7 +10691,7 @@
     </row>
     <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="42"/>
+      <c r="D453" s="44"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -10667,7 +10706,7 @@
     </row>
     <row r="454" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="42"/>
+      <c r="D454" s="44"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -10682,7 +10721,7 @@
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="42"/>
+      <c r="D455" s="44"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -10697,7 +10736,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="42"/>
+      <c r="D456" s="44"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -10725,7 +10764,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="42" t="s">
+      <c r="D458" s="44" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -10739,7 +10778,7 @@
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="42"/>
+      <c r="D459" s="44"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -10754,7 +10793,7 @@
     </row>
     <row r="460" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="42"/>
+      <c r="D460" s="44"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -10769,7 +10808,7 @@
     </row>
     <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="42"/>
+      <c r="D461" s="44"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -10784,7 +10823,7 @@
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="42"/>
+      <c r="D462" s="44"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -10813,7 +10852,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="42" t="s">
+      <c r="D464" s="44" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -10827,7 +10866,7 @@
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="42"/>
+      <c r="D465" s="44"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -10842,7 +10881,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="42"/>
+      <c r="D466" s="44"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -10857,7 +10896,7 @@
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="42"/>
+      <c r="D467" s="44"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -10872,7 +10911,7 @@
     </row>
     <row r="468" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="42"/>
+      <c r="D468" s="44"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -10900,7 +10939,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="42" t="s">
+      <c r="D470" s="44" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -10914,7 +10953,7 @@
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="42"/>
+      <c r="D471" s="44"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -10929,7 +10968,7 @@
     </row>
     <row r="472" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="42"/>
+      <c r="D472" s="44"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -10944,7 +10983,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="42"/>
+      <c r="D473" s="44"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -10959,7 +10998,7 @@
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="42"/>
+      <c r="D474" s="44"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -10988,7 +11027,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="42" t="s">
+      <c r="D476" s="44" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11002,7 +11041,7 @@
     </row>
     <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="42"/>
+      <c r="D477" s="44"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11017,7 +11056,7 @@
     </row>
     <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="42"/>
+      <c r="D478" s="44"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11032,7 +11071,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="42"/>
+      <c r="D479" s="44"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11047,7 +11086,7 @@
     </row>
     <row r="480" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="42"/>
+      <c r="D480" s="44"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11065,7 +11104,7 @@
     </row>
     <row r="481" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="42"/>
+      <c r="D481" s="44"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11084,7 +11123,7 @@
     <row r="482" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="42"/>
+      <c r="D482" s="44"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11115,7 +11154,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="42" t="s">
+      <c r="D484" s="44" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11129,7 +11168,7 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="42"/>
+      <c r="D485" s="44"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11144,7 +11183,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="42"/>
+      <c r="D486" s="44"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11159,7 +11198,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="42"/>
+      <c r="D487" s="44"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11174,7 +11213,7 @@
     </row>
     <row r="488" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="42"/>
+      <c r="D488" s="44"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11192,7 +11231,7 @@
     </row>
     <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="42"/>
+      <c r="D489" s="44"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11211,7 +11250,7 @@
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="42"/>
+      <c r="D490" s="44"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11242,7 +11281,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="42" t="s">
+      <c r="D492" s="44" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -11256,7 +11295,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="42"/>
+      <c r="D493" s="44"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11271,7 +11310,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="42"/>
+      <c r="D494" s="44"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11286,7 +11325,7 @@
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="42"/>
+      <c r="D495" s="44"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11301,7 +11340,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="42"/>
+      <c r="D496" s="44"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11316,7 +11355,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="42"/>
+      <c r="D497" s="44"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11332,7 +11371,7 @@
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="42"/>
+      <c r="D498" s="44"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11360,7 +11399,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="42" t="s">
+      <c r="D500" s="44" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -11374,7 +11413,7 @@
     </row>
     <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="42"/>
+      <c r="D501" s="44"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -11389,7 +11428,7 @@
     </row>
     <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="42"/>
+      <c r="D502" s="44"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -11404,7 +11443,7 @@
     </row>
     <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="42"/>
+      <c r="D503" s="44"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -11419,7 +11458,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="42"/>
+      <c r="D504" s="44"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -11434,7 +11473,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="42"/>
+      <c r="D505" s="44"/>
       <c r="E505" s="19">
         <v>6</v>
       </c>
@@ -11463,7 +11502,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="42" t="s">
+      <c r="D507" s="44" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -11477,7 +11516,7 @@
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="42"/>
+      <c r="D508" s="44"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -11492,7 +11531,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="42"/>
+      <c r="D509" s="44"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -11507,7 +11546,7 @@
     </row>
     <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="42"/>
+      <c r="D510" s="44"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -11522,7 +11561,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="42"/>
+      <c r="D511" s="44"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -11537,7 +11576,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="42"/>
+      <c r="D512" s="44"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -11565,7 +11604,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="42" t="s">
+      <c r="D514" s="44" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -11582,7 +11621,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="42"/>
+      <c r="D515" s="44"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -11600,7 +11639,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="42"/>
+      <c r="D516" s="44"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -11628,7 +11667,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="42" t="s">
+      <c r="D518" s="44" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -11645,7 +11684,7 @@
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="42"/>
+      <c r="D519" s="44"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -11663,7 +11702,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="42"/>
+      <c r="D520" s="44"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -11678,7 +11717,7 @@
     </row>
     <row r="521" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="42"/>
+      <c r="D521" s="44"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -11697,7 +11736,7 @@
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="42"/>
+      <c r="D522" s="44"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -11712,7 +11751,7 @@
     </row>
     <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="42"/>
+      <c r="D523" s="44"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -11730,7 +11769,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="42"/>
+      <c r="D524" s="44"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -11758,7 +11797,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="42" t="s">
+      <c r="D526" s="44" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -11775,7 +11814,7 @@
     </row>
     <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="42"/>
+      <c r="D527" s="44"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -11793,7 +11832,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="42"/>
+      <c r="D528" s="44"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -11821,7 +11860,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="42" t="s">
+      <c r="D530" s="44" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -11838,7 +11877,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="42"/>
+      <c r="D531" s="44"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -11856,7 +11895,7 @@
     </row>
     <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="42"/>
+      <c r="D532" s="44"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -11871,7 +11910,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="42"/>
+      <c r="D533" s="44"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -11887,7 +11926,7 @@
     <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="42"/>
+      <c r="D534" s="44"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -11915,7 +11954,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="42" t="s">
+      <c r="D536" s="44" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -11932,7 +11971,7 @@
     </row>
     <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="42"/>
+      <c r="D537" s="44"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -11950,7 +11989,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="42"/>
+      <c r="D538" s="44"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -11965,7 +12004,7 @@
     </row>
     <row r="539" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="42"/>
+      <c r="D539" s="44"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -11984,7 +12023,7 @@
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="42"/>
+      <c r="D540" s="44"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12000,7 +12039,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="42"/>
+      <c r="D541" s="44"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12028,7 +12067,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="42" t="s">
+      <c r="D543" s="44" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12045,7 +12084,7 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="42"/>
+      <c r="D544" s="44"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12063,7 +12102,7 @@
     </row>
     <row r="545" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="42"/>
+      <c r="D545" s="44"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12081,7 +12120,7 @@
     </row>
     <row r="546" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="42"/>
+      <c r="D546" s="44"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12100,7 +12139,7 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="42"/>
+      <c r="D547" s="44"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12116,7 +12155,7 @@
     <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="42"/>
+      <c r="D548" s="44"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12147,7 +12186,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="42" t="s">
+      <c r="D550" s="44" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -12164,7 +12203,7 @@
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="42"/>
+      <c r="D551" s="44"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12182,7 +12221,7 @@
     </row>
     <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="42"/>
+      <c r="D552" s="44"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12200,7 +12239,7 @@
     </row>
     <row r="553" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="42"/>
+      <c r="D553" s="44"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12219,7 +12258,7 @@
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="42"/>
+      <c r="D554" s="44"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -12235,7 +12274,7 @@
     <row r="555" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="42"/>
+      <c r="D555" s="44"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -12250,7 +12289,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="42"/>
+      <c r="D556" s="44"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -12268,7 +12307,7 @@
     </row>
     <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="42"/>
+      <c r="D557" s="44"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -12287,7 +12326,7 @@
     <row r="558" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="42"/>
+      <c r="D558" s="44"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -12305,7 +12344,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="42"/>
+      <c r="D559" s="44"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -12333,7 +12372,7 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="42" t="s">
+      <c r="D561" s="44" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
@@ -12350,7 +12389,7 @@
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="42"/>
+      <c r="D562" s="44"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -12368,7 +12407,7 @@
     </row>
     <row r="563" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="42"/>
+      <c r="D563" s="44"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -12386,7 +12425,7 @@
     </row>
     <row r="564" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="42"/>
+      <c r="D564" s="44"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -12405,7 +12444,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="42"/>
+      <c r="D565" s="44"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -12421,7 +12460,7 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="42"/>
+      <c r="D566" s="44"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -12436,7 +12475,7 @@
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="42"/>
+      <c r="D567" s="44"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -12451,7 +12490,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="42"/>
+      <c r="D568" s="44"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -12479,7 +12518,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="42" t="s">
+      <c r="D570" s="44" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -12496,7 +12535,7 @@
     </row>
     <row r="571" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="42"/>
+      <c r="D571" s="44"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -12514,7 +12553,7 @@
     </row>
     <row r="572" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="42"/>
+      <c r="D572" s="44"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -12529,7 +12568,7 @@
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="42"/>
+      <c r="D573" s="44"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -12557,7 +12596,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="42" t="s">
+      <c r="D575" s="44" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -12574,7 +12613,7 @@
     </row>
     <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="42"/>
+      <c r="D576" s="44"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -12592,7 +12631,7 @@
     </row>
     <row r="577" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="42"/>
+      <c r="D577" s="44"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -12607,7 +12646,7 @@
     </row>
     <row r="578" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="42"/>
+      <c r="D578" s="44"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -12622,7 +12661,7 @@
     </row>
     <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="42"/>
+      <c r="D579" s="44"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -12650,7 +12689,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="42" t="s">
+      <c r="D581" s="44" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -12667,7 +12706,7 @@
     </row>
     <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="42"/>
+      <c r="D582" s="44"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -12685,7 +12724,7 @@
     </row>
     <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="42"/>
+      <c r="D583" s="44"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -12703,7 +12742,7 @@
     </row>
     <row r="584" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="42"/>
+      <c r="D584" s="44"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -12718,7 +12757,7 @@
     </row>
     <row r="585" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="42"/>
+      <c r="D585" s="44"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -12746,7 +12785,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="42" t="s">
+      <c r="D587" s="44" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -12763,7 +12802,7 @@
     </row>
     <row r="588" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="42"/>
+      <c r="D588" s="44"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -12781,7 +12820,7 @@
     </row>
     <row r="589" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="42"/>
+      <c r="D589" s="44"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -12796,7 +12835,7 @@
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="42"/>
+      <c r="D590" s="44"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -12811,7 +12850,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="42"/>
+      <c r="D591" s="44"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -12826,7 +12865,7 @@
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="42"/>
+      <c r="D592" s="44"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -12854,7 +12893,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="42" t="s">
+      <c r="D594" s="44" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -12871,7 +12910,7 @@
     </row>
     <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="42"/>
+      <c r="D595" s="44"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -12889,7 +12928,7 @@
     </row>
     <row r="596" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="42"/>
+      <c r="D596" s="44"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -12904,7 +12943,7 @@
     </row>
     <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="42"/>
+      <c r="D597" s="44"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -12919,7 +12958,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="42"/>
+      <c r="D598" s="44"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -12934,7 +12973,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="42"/>
+      <c r="D599" s="44"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -12962,7 +13001,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="42" t="s">
+      <c r="D601" s="44" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -12979,7 +13018,7 @@
     </row>
     <row r="602" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="42"/>
+      <c r="D602" s="44"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -12994,7 +13033,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="42"/>
+      <c r="D603" s="44"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13022,7 +13061,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="42" t="s">
+      <c r="D605" s="44" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -13039,7 +13078,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="42"/>
+      <c r="D606" s="44"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -13057,7 +13096,7 @@
     </row>
     <row r="607" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="42"/>
+      <c r="D607" s="44"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -13072,7 +13111,7 @@
     </row>
     <row r="608" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="42"/>
+      <c r="D608" s="44"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -13101,7 +13140,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="42" t="s">
+      <c r="D610" s="44" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -13118,7 +13157,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="42"/>
+      <c r="D611" s="44"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -13136,7 +13175,7 @@
     </row>
     <row r="612" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="42"/>
+      <c r="D612" s="44"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -13151,7 +13190,7 @@
     </row>
     <row r="613" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="42"/>
+      <c r="D613" s="44"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -13166,7 +13205,7 @@
     </row>
     <row r="614" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="31"/>
-      <c r="D614" s="42"/>
+      <c r="D614" s="44"/>
       <c r="E614" s="19">
         <v>5</v>
       </c>
@@ -13194,14 +13233,14 @@
       <c r="C616" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D616" s="42" t="s">
+      <c r="D616" s="44" t="s">
         <v>495</v>
       </c>
       <c r="E616" s="19">
         <v>1</v>
       </c>
       <c r="F616" s="19" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="G616" s="19" t="s">
         <v>497</v>
@@ -13211,7 +13250,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B617" s="38"/>
-      <c r="D617" s="42"/>
+      <c r="D617" s="44"/>
       <c r="E617" s="19">
         <v>2</v>
       </c>
@@ -13226,7 +13265,7 @@
     </row>
     <row r="618" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B618" s="38"/>
-      <c r="D618" s="42"/>
+      <c r="D618" s="44"/>
       <c r="E618" s="19">
         <v>3</v>
       </c>
@@ -13241,7 +13280,7 @@
     </row>
     <row r="619" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B619" s="37"/>
-      <c r="D619" s="42"/>
+      <c r="D619" s="44"/>
       <c r="E619" s="19">
         <v>4</v>
       </c>
@@ -13256,7 +13295,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B620" s="37"/>
-      <c r="D620" s="42"/>
+      <c r="D620" s="44"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
@@ -13275,14 +13314,14 @@
       <c r="C622" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D622" s="42" t="s">
+      <c r="D622" s="44" t="s">
         <v>502</v>
       </c>
       <c r="E622" s="19">
         <v>1</v>
       </c>
       <c r="F622" s="19" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="G622" s="19" t="s">
         <v>497</v>
@@ -13292,7 +13331,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B623" s="40"/>
-      <c r="D623" s="42"/>
+      <c r="D623" s="44"/>
       <c r="E623" s="19">
         <v>2</v>
       </c>
@@ -13307,7 +13346,7 @@
     </row>
     <row r="624" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B624" s="40"/>
-      <c r="D624" s="42"/>
+      <c r="D624" s="44"/>
       <c r="E624" s="19">
         <v>3</v>
       </c>
@@ -13322,7 +13361,7 @@
     </row>
     <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B625" s="39"/>
-      <c r="D625" s="42"/>
+      <c r="D625" s="44"/>
       <c r="E625" s="19">
         <v>4</v>
       </c>
@@ -13337,7 +13376,7 @@
     </row>
     <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B626" s="39"/>
-      <c r="D626" s="42"/>
+      <c r="D626" s="44"/>
       <c r="E626" s="19">
         <v>5</v>
       </c>
@@ -13352,7 +13391,7 @@
     </row>
     <row r="627" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="31"/>
-      <c r="D627" s="42"/>
+      <c r="D627" s="44"/>
       <c r="E627" s="19">
         <v>6</v>
       </c>
@@ -13380,7 +13419,7 @@
       <c r="C629" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D629" s="42" t="s">
+      <c r="D629" s="44" t="s">
         <v>508</v>
       </c>
       <c r="E629" s="19">
@@ -13397,7 +13436,7 @@
     </row>
     <row r="630" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B630" s="40"/>
-      <c r="D630" s="42"/>
+      <c r="D630" s="44"/>
       <c r="E630" s="19">
         <v>2</v>
       </c>
@@ -13412,7 +13451,7 @@
     </row>
     <row r="631" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B631" s="40"/>
-      <c r="D631" s="42"/>
+      <c r="D631" s="44"/>
       <c r="E631" s="19">
         <v>3</v>
       </c>
@@ -13427,7 +13466,7 @@
     </row>
     <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B632" s="39"/>
-      <c r="D632" s="42"/>
+      <c r="D632" s="44"/>
       <c r="E632" s="19">
         <v>4</v>
       </c>
@@ -13455,7 +13494,7 @@
       <c r="C634" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D634" s="42" t="s">
+      <c r="D634" s="44" t="s">
         <v>516</v>
       </c>
       <c r="E634" s="19">
@@ -13472,7 +13511,7 @@
     </row>
     <row r="635" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B635" s="40"/>
-      <c r="D635" s="42"/>
+      <c r="D635" s="44"/>
       <c r="E635" s="19">
         <v>2</v>
       </c>
@@ -13487,7 +13526,7 @@
     </row>
     <row r="636" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B636" s="40"/>
-      <c r="D636" s="42"/>
+      <c r="D636" s="44"/>
       <c r="E636" s="19">
         <v>3</v>
       </c>
@@ -13502,7 +13541,7 @@
     </row>
     <row r="637" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B637" s="39"/>
-      <c r="D637" s="42"/>
+      <c r="D637" s="44"/>
       <c r="E637" s="19">
         <v>4</v>
       </c>
@@ -13517,7 +13556,7 @@
     </row>
     <row r="638" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B638" s="39"/>
-      <c r="D638" s="42"/>
+      <c r="D638" s="44"/>
       <c r="E638" s="19">
         <v>5</v>
       </c>
@@ -13545,7 +13584,7 @@
       <c r="C640" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D640" s="42" t="s">
+      <c r="D640" s="44" t="s">
         <v>520</v>
       </c>
       <c r="E640" s="19">
@@ -13563,7 +13602,7 @@
     <row r="641" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="28"/>
       <c r="B641" s="40"/>
-      <c r="D641" s="42"/>
+      <c r="D641" s="44"/>
       <c r="E641" s="19">
         <v>2</v>
       </c>
@@ -13579,7 +13618,7 @@
     <row r="642" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A642" s="28"/>
       <c r="B642" s="40"/>
-      <c r="D642" s="42"/>
+      <c r="D642" s="44"/>
       <c r="E642" s="19">
         <v>3</v>
       </c>
@@ -13594,7 +13633,7 @@
     </row>
     <row r="643" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B643" s="40"/>
-      <c r="D643" s="42"/>
+      <c r="D643" s="44"/>
       <c r="E643" s="19">
         <v>4</v>
       </c>
@@ -13609,7 +13648,7 @@
     </row>
     <row r="644" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B644" s="40"/>
-      <c r="D644" s="42"/>
+      <c r="D644" s="44"/>
       <c r="E644" s="19">
         <v>5</v>
       </c>
@@ -13624,7 +13663,7 @@
     </row>
     <row r="645" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B645" s="39"/>
-      <c r="D645" s="42"/>
+      <c r="D645" s="44"/>
       <c r="E645" s="19">
         <v>6</v>
       </c>
@@ -13639,7 +13678,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B646" s="39"/>
-      <c r="D646" s="42"/>
+      <c r="D646" s="44"/>
       <c r="E646" s="19">
         <v>7</v>
       </c>
@@ -13667,7 +13706,7 @@
       <c r="C648" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D648" s="42" t="s">
+      <c r="D648" s="44" t="s">
         <v>534</v>
       </c>
       <c r="E648" s="19">
@@ -13684,7 +13723,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B649" s="40"/>
-      <c r="D649" s="42"/>
+      <c r="D649" s="44"/>
       <c r="E649" s="19">
         <v>2</v>
       </c>
@@ -13699,7 +13738,7 @@
     </row>
     <row r="650" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="42"/>
+      <c r="D650" s="44"/>
       <c r="E650" s="19">
         <v>3</v>
       </c>
@@ -13727,7 +13766,7 @@
       <c r="C652" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D652" s="42" t="s">
+      <c r="D652" s="44" t="s">
         <v>541</v>
       </c>
       <c r="E652" s="19">
@@ -13744,7 +13783,7 @@
     </row>
     <row r="653" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B653" s="40"/>
-      <c r="D653" s="42"/>
+      <c r="D653" s="44"/>
       <c r="E653" s="19">
         <v>2</v>
       </c>
@@ -13759,7 +13798,7 @@
     </row>
     <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B654" s="40"/>
-      <c r="D654" s="42"/>
+      <c r="D654" s="44"/>
       <c r="E654" s="19">
         <v>3</v>
       </c>
@@ -13787,7 +13826,7 @@
       <c r="C656" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D656" s="42" t="s">
+      <c r="D656" s="44" t="s">
         <v>549</v>
       </c>
       <c r="E656" s="19">
@@ -13804,7 +13843,7 @@
     </row>
     <row r="657" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B657" s="40"/>
-      <c r="D657" s="42"/>
+      <c r="D657" s="44"/>
       <c r="E657" s="19">
         <v>2</v>
       </c>
@@ -13819,7 +13858,7 @@
     </row>
     <row r="658" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B658" s="40"/>
-      <c r="D658" s="42"/>
+      <c r="D658" s="44"/>
       <c r="E658" s="19">
         <v>3</v>
       </c>
@@ -13834,7 +13873,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B659" s="39"/>
-      <c r="D659" s="42"/>
+      <c r="D659" s="44"/>
       <c r="E659" s="19">
         <v>4</v>
       </c>
@@ -13862,7 +13901,7 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="42" t="s">
+      <c r="D661" s="44" t="s">
         <v>555</v>
       </c>
       <c r="E661" s="19">
@@ -13879,7 +13918,7 @@
     </row>
     <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="42"/>
+      <c r="D662" s="44"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
@@ -13894,7 +13933,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="42"/>
+      <c r="D663" s="44"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -13917,7 +13956,7 @@
       <c r="C664" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D664" s="42" t="s">
+      <c r="D664" s="44" t="s">
         <v>558</v>
       </c>
       <c r="E664" s="19">
@@ -13934,7 +13973,7 @@
     </row>
     <row r="665" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="40"/>
-      <c r="D665" s="42"/>
+      <c r="D665" s="44"/>
       <c r="E665" s="19">
         <v>2</v>
       </c>
@@ -13949,7 +13988,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B666" s="40"/>
-      <c r="D666" s="42"/>
+      <c r="D666" s="44"/>
       <c r="E666" s="19">
         <v>3</v>
       </c>
@@ -13975,7 +14014,7 @@
       <c r="C668" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D668" s="42" t="s">
+      <c r="D668" s="44" t="s">
         <v>561</v>
       </c>
       <c r="E668" s="19">
@@ -13991,7 +14030,7 @@
     </row>
     <row r="669" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B669" s="40"/>
-      <c r="D669" s="42"/>
+      <c r="D669" s="44"/>
       <c r="E669" s="19">
         <v>2</v>
       </c>
@@ -14005,7 +14044,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B670" s="40"/>
-      <c r="D670" s="42"/>
+      <c r="D670" s="44"/>
       <c r="E670" s="19">
         <v>3</v>
       </c>
@@ -14031,7 +14070,7 @@
       <c r="C672" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D672" s="42" t="s">
+      <c r="D672" s="44" t="s">
         <v>564</v>
       </c>
       <c r="E672" s="19">
@@ -14047,7 +14086,7 @@
     </row>
     <row r="673" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B673" s="40"/>
-      <c r="D673" s="42"/>
+      <c r="D673" s="44"/>
       <c r="E673" s="19">
         <v>2</v>
       </c>
@@ -14064,7 +14103,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="42"/>
+      <c r="D674" s="44"/>
       <c r="E674" s="19">
         <v>3</v>
       </c>
@@ -14090,7 +14129,7 @@
       <c r="C676" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D676" s="42" t="s">
+      <c r="D676" s="44" t="s">
         <v>572</v>
       </c>
       <c r="E676" s="19">
@@ -14106,7 +14145,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B677" s="40"/>
-      <c r="D677" s="42"/>
+      <c r="D677" s="44"/>
       <c r="E677" s="19">
         <v>2</v>
       </c>
@@ -14120,7 +14159,7 @@
     </row>
     <row r="678" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B678" s="40"/>
-      <c r="D678" s="42"/>
+      <c r="D678" s="44"/>
       <c r="E678" s="19">
         <v>3</v>
       </c>
@@ -14146,7 +14185,7 @@
       <c r="C680" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D680" s="42" t="s">
+      <c r="D680" s="44" t="s">
         <v>580</v>
       </c>
       <c r="E680" s="19">
@@ -14162,7 +14201,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B681" s="40"/>
-      <c r="D681" s="42"/>
+      <c r="D681" s="44"/>
       <c r="E681" s="19">
         <v>2</v>
       </c>
@@ -14176,7 +14215,7 @@
     </row>
     <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B682" s="40"/>
-      <c r="D682" s="42"/>
+      <c r="D682" s="44"/>
       <c r="E682" s="19">
         <v>3</v>
       </c>
@@ -14202,7 +14241,7 @@
       <c r="C684" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D684" s="42" t="s">
+      <c r="D684" s="44" t="s">
         <v>585</v>
       </c>
       <c r="E684" s="19">
@@ -14218,7 +14257,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B685" s="40"/>
-      <c r="D685" s="42"/>
+      <c r="D685" s="44"/>
       <c r="E685" s="19">
         <v>2</v>
       </c>
@@ -14232,7 +14271,7 @@
     </row>
     <row r="686" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B686" s="40"/>
-      <c r="D686" s="42"/>
+      <c r="D686" s="44"/>
       <c r="E686" s="19">
         <v>3</v>
       </c>
@@ -14248,134 +14287,357 @@
       <c r="B687" s="31"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B688" s="31"/>
+    <row r="688" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A688" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B688" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C688" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D688" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="E688" s="19">
+        <v>1</v>
+      </c>
+      <c r="F688" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="G688" s="19" t="s">
+        <v>587</v>
+      </c>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B689" s="31"/>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B689" s="42"/>
+      <c r="D689" s="44"/>
+      <c r="E689" s="19">
+        <v>2</v>
+      </c>
+      <c r="F689" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="G689" s="19" t="s">
+        <v>576</v>
+      </c>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B690" s="31"/>
+    <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B690" s="42"/>
+      <c r="D690" s="44"/>
+      <c r="E690" s="19">
+        <v>3</v>
+      </c>
+      <c r="F690" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="G690" s="19" t="s">
+        <v>578</v>
+      </c>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B691" s="31"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B692" s="31"/>
+    <row r="692" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A692" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B692" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C692" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D692" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="E692" s="19">
+        <v>1</v>
+      </c>
+      <c r="F692" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="G692" s="19" t="s">
+        <v>594</v>
+      </c>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B693" s="31"/>
+      <c r="D693" s="44"/>
+      <c r="E693" s="19">
+        <v>2</v>
+      </c>
+      <c r="F693" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G693" s="19" t="s">
+        <v>483</v>
+      </c>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B694" s="31"/>
+      <c r="D694" s="44"/>
+      <c r="E694" s="19">
+        <v>3</v>
+      </c>
+      <c r="F694" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G694" s="19" t="s">
+        <v>499</v>
+      </c>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B695" s="31"/>
+      <c r="D695" s="44"/>
+      <c r="E695" s="19">
+        <v>4</v>
+      </c>
+      <c r="F695" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G695" s="19" t="s">
+        <v>595</v>
+      </c>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B696" s="31"/>
+      <c r="D696" s="44"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B697" s="31"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B698" s="31"/>
+    <row r="698" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A698" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B698" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C698" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D698" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="E698" s="19">
+        <v>1</v>
+      </c>
+      <c r="F698" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="G698" s="19" t="s">
+        <v>594</v>
+      </c>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B699" s="31"/>
+      <c r="D699" s="44"/>
+      <c r="E699" s="19">
+        <v>2</v>
+      </c>
+      <c r="F699" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="G699" s="19" t="s">
+        <v>598</v>
+      </c>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B700" s="31"/>
+      <c r="D700" s="44"/>
+      <c r="E700" s="19">
+        <v>3</v>
+      </c>
+      <c r="F700" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G700" s="19" t="s">
+        <v>499</v>
+      </c>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D701" s="44"/>
+      <c r="E701" s="19">
+        <v>4</v>
+      </c>
+      <c r="F701" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G701" s="19" t="s">
+        <v>595</v>
+      </c>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D702" s="44"/>
+      <c r="E702" s="19">
+        <v>5</v>
+      </c>
+      <c r="F702" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="G702" s="19" t="s">
+        <v>596</v>
+      </c>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D703" s="44"/>
+      <c r="E703" s="19">
+        <v>6</v>
+      </c>
+      <c r="F703" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="G703" s="19" t="s">
+        <v>595</v>
+      </c>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A705" s="28"/>
+      <c r="B705" s="42"/>
+      <c r="D705" s="44"/>
+      <c r="E705" s="19">
+        <v>1</v>
+      </c>
+      <c r="F705" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="G705" s="19" t="s">
+        <v>594</v>
+      </c>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B706" s="41"/>
+      <c r="D706" s="44"/>
+      <c r="E706" s="19">
+        <v>2</v>
+      </c>
+      <c r="F706" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="G706" s="19" t="s">
+        <v>598</v>
+      </c>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B707" s="41"/>
+      <c r="D707" s="44"/>
+      <c r="E707" s="19">
+        <v>3</v>
+      </c>
+      <c r="F707" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G707" s="19" t="s">
+        <v>499</v>
+      </c>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B708" s="41"/>
+      <c r="D708" s="44"/>
+      <c r="E708" s="19">
+        <v>4</v>
+      </c>
+      <c r="F708" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G708" s="19" t="s">
+        <v>595</v>
+      </c>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B709" s="41"/>
+      <c r="D709" s="44"/>
+      <c r="E709" s="19">
+        <v>5</v>
+      </c>
+      <c r="F709" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="G709" s="19" t="s">
+        <v>596</v>
+      </c>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B710" s="41"/>
+      <c r="D710" s="44"/>
+      <c r="E710" s="19">
+        <v>6</v>
+      </c>
+      <c r="F710" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="G710" s="19" t="s">
+        <v>595</v>
+      </c>
       <c r="K710" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D536:D541"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
+  <mergeCells count="99">
+    <mergeCell ref="D688:D690"/>
+    <mergeCell ref="D692:D696"/>
+    <mergeCell ref="D698:D703"/>
+    <mergeCell ref="D705:D710"/>
+    <mergeCell ref="D680:D682"/>
+    <mergeCell ref="D684:D686"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D664:D666"/>
+    <mergeCell ref="D668:D670"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="D676:D678"/>
+    <mergeCell ref="D640:D646"/>
+    <mergeCell ref="D648:D650"/>
+    <mergeCell ref="D652:D654"/>
+    <mergeCell ref="D656:D659"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D622:D627"/>
+    <mergeCell ref="D629:D632"/>
+    <mergeCell ref="D634:D638"/>
+    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D518:D524"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="D530:D534"/>
+    <mergeCell ref="D410:D414"/>
+    <mergeCell ref="D404:D408"/>
+    <mergeCell ref="D422:D426"/>
+    <mergeCell ref="D396:D402"/>
+    <mergeCell ref="D358:D363"/>
+    <mergeCell ref="D365:D371"/>
+    <mergeCell ref="D373:D379"/>
+    <mergeCell ref="D381:D386"/>
+    <mergeCell ref="D388:D394"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D24:D30"/>
     <mergeCell ref="D32:D40"/>
     <mergeCell ref="D42:D50"/>
     <mergeCell ref="D440:D444"/>
@@ -14392,45 +14654,54 @@
     <mergeCell ref="D103:D110"/>
     <mergeCell ref="D112:D117"/>
     <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D518:D524"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="D530:D534"/>
-    <mergeCell ref="D410:D414"/>
-    <mergeCell ref="D404:D408"/>
-    <mergeCell ref="D422:D426"/>
-    <mergeCell ref="D396:D402"/>
-    <mergeCell ref="D358:D363"/>
-    <mergeCell ref="D365:D371"/>
-    <mergeCell ref="D373:D379"/>
-    <mergeCell ref="D381:D386"/>
-    <mergeCell ref="D388:D394"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D640:D646"/>
-    <mergeCell ref="D648:D650"/>
-    <mergeCell ref="D652:D654"/>
-    <mergeCell ref="D656:D659"/>
-    <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D622:D627"/>
-    <mergeCell ref="D629:D632"/>
-    <mergeCell ref="D634:D638"/>
-    <mergeCell ref="D616:D620"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D614"/>
-    <mergeCell ref="D680:D682"/>
-    <mergeCell ref="D684:D686"/>
-    <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D664:D666"/>
-    <mergeCell ref="D668:D670"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="D676:D678"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D536:D541"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618 B622:B624 B629:B631 B634:B636 B640:B644 B648:B650 B652:B654 B656:B658 B661:B666 B668:B670 B672:B674 B676:B678 B680:B682 B684:B686" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618 B622:B624 B629:B631 B634:B636 B640:B644 B648:B650 B652:B654 B656:B658 B661:B666 B668:B670 B672:B674 B676:B678 B680:B682 B684:B686 B688:B690 B692 B698 B705" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
@@ -14477,7 +14748,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="19">
@@ -14493,7 +14764,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="42"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -14509,7 +14780,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -14525,7 +14796,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -14541,7 +14812,7 @@
       <c r="A6" s="29"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -14557,7 +14828,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="42"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -14589,7 +14860,7 @@
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="44" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="19">
@@ -14605,7 +14876,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -14621,7 +14892,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="32"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -14637,7 +14908,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -14653,7 +14924,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -14669,7 +14940,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -14685,7 +14956,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -14715,7 +14986,7 @@
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="44" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="19">
@@ -14731,7 +15002,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -14747,7 +15018,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -14763,7 +15034,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -14779,7 +15050,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -14795,7 +15066,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="42"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -14808,7 +15079,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="42"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>

--- a/Test Cases/Rijo/Test Case - Theatre.xlsx
+++ b/Test Cases/Rijo/Test Case - Theatre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Mediware\Mediware-Repository\Test Cases\Rijo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Mediware\Mediware-Repository\Test Cases\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E85E0C-27D6-4860-96A1-75D326ACB990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788A990-A410-4AE1-8A10-D2FA1B3E5440}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="600">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2510,7 +2510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2633,6 +2633,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3637,16 +3640,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3663,8 +3666,8 @@
   <dimension ref="A1:R710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +3742,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -3775,7 +3778,7 @@
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3841,7 +3844,7 @@
     <row r="5" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -3867,7 +3870,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -3974,7 +3977,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -3988,7 +3991,7 @@
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="15" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="44"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4049,7 +4052,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4064,7 +4067,7 @@
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4080,7 +4083,7 @@
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4099,7 +4102,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="44"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4115,7 +4118,7 @@
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="44"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4143,7 +4146,7 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
@@ -4157,7 +4160,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4190,7 +4193,7 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="44"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4205,7 +4208,7 @@
     </row>
     <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="44"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="44"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4263,7 +4266,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4277,7 +4280,7 @@
     </row>
     <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4292,7 +4295,7 @@
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4310,7 +4313,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4325,7 +4328,7 @@
     </row>
     <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4340,7 +4343,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="44"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="44"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="44"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4385,7 +4388,7 @@
     </row>
     <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="44"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="45" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4427,7 +4430,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4442,7 +4445,7 @@
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="44"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4472,7 +4475,7 @@
     </row>
     <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="44"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4490,7 +4493,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="44"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="44"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4523,7 +4526,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="44"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4538,7 +4541,7 @@
     </row>
     <row r="50" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="44"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4580,7 +4583,7 @@
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="44"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="44"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="44"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="44"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="44"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="44"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4676,7 +4679,7 @@
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="44"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="60" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="44"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4734,7 +4737,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -4748,7 +4751,7 @@
     </row>
     <row r="64" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="44"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -4778,7 +4781,7 @@
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="44"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="44"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -4821,7 +4824,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -4835,7 +4838,7 @@
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="44"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="44"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="44"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -4880,7 +4883,7 @@
     </row>
     <row r="73" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="44"/>
+      <c r="D73" s="45"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="44"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -4923,7 +4926,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -4937,7 +4940,7 @@
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="44"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="78" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="44"/>
+      <c r="D78" s="45"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="44"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -4995,7 +4998,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -5009,7 +5012,7 @@
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="44"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5024,7 +5027,7 @@
     </row>
     <row r="83" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="44"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="44"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5068,7 +5071,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="44" t="s">
+      <c r="D86" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5082,7 +5085,7 @@
     </row>
     <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="44"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="88" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="44"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="44"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5127,7 +5130,7 @@
     </row>
     <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="44"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5145,7 +5148,7 @@
     </row>
     <row r="91" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="44"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="44"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5191,7 +5194,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5205,7 +5208,7 @@
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="44"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="44"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="44"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5250,7 +5253,7 @@
     </row>
     <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="44"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5268,7 +5271,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="44"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5286,7 +5289,7 @@
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5301,7 +5304,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="45"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5329,7 +5332,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="44" t="s">
+      <c r="D103" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5343,7 +5346,7 @@
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="44"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5358,7 +5361,7 @@
     </row>
     <row r="105" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="44"/>
+      <c r="D105" s="45"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="45"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="44"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="109" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="44"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5439,7 +5442,7 @@
     </row>
     <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="44"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5467,7 +5470,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="44" t="s">
+      <c r="D112" s="45" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5481,7 +5484,7 @@
     </row>
     <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="45"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="115" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="44"/>
+      <c r="D115" s="45"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5526,7 +5529,7 @@
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5541,7 +5544,7 @@
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="44"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5569,7 +5572,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="44" t="s">
+      <c r="D119" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -5583,7 +5586,7 @@
     </row>
     <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="44"/>
+      <c r="D120" s="45"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5598,7 +5601,7 @@
     </row>
     <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="44"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5613,7 +5616,7 @@
     </row>
     <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="44"/>
+      <c r="D122" s="45"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="44"/>
+      <c r="D123" s="45"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="44"/>
+      <c r="D124" s="45"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5658,7 +5661,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="44"/>
+      <c r="D125" s="45"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -5686,7 +5689,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="44" t="s">
+      <c r="D127" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -5700,7 +5703,7 @@
     </row>
     <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="44"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="129" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="44"/>
+      <c r="D129" s="45"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="44"/>
+      <c r="D130" s="45"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -5745,7 +5748,7 @@
     </row>
     <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="44"/>
+      <c r="D131" s="45"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -5760,7 +5763,7 @@
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="44"/>
+      <c r="D132" s="45"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="44"/>
+      <c r="D133" s="45"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -5803,7 +5806,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="44" t="s">
+      <c r="D135" s="45" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -5817,7 +5820,7 @@
     </row>
     <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="44"/>
+      <c r="D136" s="45"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="137" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="44"/>
+      <c r="D137" s="45"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="44"/>
+      <c r="D138" s="45"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -5862,7 +5865,7 @@
     </row>
     <row r="139" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="44"/>
+      <c r="D139" s="45"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -5880,7 +5883,7 @@
     </row>
     <row r="140" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="44"/>
+      <c r="D140" s="45"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -5898,7 +5901,7 @@
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="44"/>
+      <c r="D141" s="45"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -5916,7 +5919,7 @@
     </row>
     <row r="142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="44"/>
+      <c r="D142" s="45"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -5934,7 +5937,7 @@
     </row>
     <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="44"/>
+      <c r="D143" s="45"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -5952,7 +5955,7 @@
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="44"/>
+      <c r="D144" s="45"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -5980,7 +5983,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="44" t="s">
+      <c r="D146" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -5994,7 +5997,7 @@
     </row>
     <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="44"/>
+      <c r="D147" s="45"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="44"/>
+      <c r="D148" s="45"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="44"/>
+      <c r="D149" s="45"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="150" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="44"/>
+      <c r="D150" s="45"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="151" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="44"/>
+      <c r="D151" s="45"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="44"/>
+      <c r="D152" s="45"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6093,7 +6096,7 @@
     </row>
     <row r="153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="44"/>
+      <c r="D153" s="45"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6111,7 +6114,7 @@
     </row>
     <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="44"/>
+      <c r="D154" s="45"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6129,7 +6132,7 @@
     </row>
     <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="44"/>
+      <c r="D155" s="45"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6144,7 +6147,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="44"/>
+      <c r="D156" s="45"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6174,7 +6177,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="44" t="s">
+      <c r="D158" s="45" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6188,7 +6191,7 @@
     </row>
     <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="44"/>
+      <c r="D159" s="45"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6203,7 +6206,7 @@
     </row>
     <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="44"/>
+      <c r="D160" s="45"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="44"/>
+      <c r="D161" s="45"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="44"/>
+      <c r="D162" s="45"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6251,7 +6254,7 @@
     </row>
     <row r="163" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="44"/>
+      <c r="D163" s="45"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="44"/>
+      <c r="D164" s="45"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6289,7 +6292,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="44"/>
+      <c r="D165" s="45"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6309,7 +6312,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="44"/>
+      <c r="D166" s="45"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6329,7 +6332,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="44"/>
+      <c r="D167" s="45"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6346,7 +6349,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="44"/>
+      <c r="D168" s="45"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="44" t="s">
+      <c r="D170" s="45" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6389,7 +6392,7 @@
     </row>
     <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="44"/>
+      <c r="D171" s="45"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="44"/>
+      <c r="D172" s="45"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6419,7 +6422,7 @@
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="44"/>
+      <c r="D173" s="45"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6434,7 +6437,7 @@
     </row>
     <row r="174" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="44"/>
+      <c r="D174" s="45"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6452,7 +6455,7 @@
     </row>
     <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="44"/>
+      <c r="D175" s="45"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6470,7 +6473,7 @@
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="44"/>
+      <c r="D176" s="45"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6488,7 +6491,7 @@
     </row>
     <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="44"/>
+      <c r="D177" s="45"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="178" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="44"/>
+      <c r="D178" s="45"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6524,7 +6527,7 @@
     </row>
     <row r="179" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="44"/>
+      <c r="D179" s="45"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="44"/>
+      <c r="D180" s="45"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6567,7 +6570,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="44" t="s">
+      <c r="D182" s="45" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -6581,7 +6584,7 @@
     </row>
     <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="44"/>
+      <c r="D183" s="45"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6596,7 +6599,7 @@
     </row>
     <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="44"/>
+      <c r="D184" s="45"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="44"/>
+      <c r="D185" s="45"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6626,7 +6629,7 @@
     </row>
     <row r="186" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="44"/>
+      <c r="D186" s="45"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="44"/>
+      <c r="D187" s="45"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="188" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="44"/>
+      <c r="D188" s="45"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6680,7 +6683,7 @@
     </row>
     <row r="189" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="44"/>
+      <c r="D189" s="45"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -6698,7 +6701,7 @@
     </row>
     <row r="190" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="44"/>
+      <c r="D190" s="45"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -6716,7 +6719,7 @@
     </row>
     <row r="191" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="44"/>
+      <c r="D191" s="45"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -6731,7 +6734,7 @@
     </row>
     <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="44"/>
+      <c r="D192" s="45"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -6746,7 +6749,7 @@
     </row>
     <row r="193" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="44"/>
+      <c r="D193" s="45"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -6776,7 +6779,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="44" t="s">
+      <c r="D195" s="45" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -6790,7 +6793,7 @@
     </row>
     <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="44"/>
+      <c r="D196" s="45"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -6805,7 +6808,7 @@
     </row>
     <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="44"/>
+      <c r="D197" s="45"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -6820,7 +6823,7 @@
     </row>
     <row r="198" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="44"/>
+      <c r="D198" s="45"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -6835,7 +6838,7 @@
     </row>
     <row r="199" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="44"/>
+      <c r="D199" s="45"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -6853,7 +6856,7 @@
     </row>
     <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="44"/>
+      <c r="D200" s="45"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -6871,7 +6874,7 @@
     </row>
     <row r="201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="44"/>
+      <c r="D201" s="45"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -6891,7 +6894,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="44"/>
+      <c r="D202" s="45"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -6911,7 +6914,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="44"/>
+      <c r="D203" s="45"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -6931,7 +6934,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="44"/>
+      <c r="D204" s="45"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -6948,7 +6951,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="44"/>
+      <c r="D205" s="45"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -6965,7 +6968,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="44"/>
+      <c r="D206" s="45"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -6994,7 +6997,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="44" t="s">
+      <c r="D208" s="45" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -7008,7 +7011,7 @@
     </row>
     <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="44"/>
+      <c r="D209" s="45"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="210" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="44"/>
+      <c r="D210" s="45"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="44"/>
+      <c r="D211" s="45"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7053,7 +7056,7 @@
     </row>
     <row r="212" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="44"/>
+      <c r="D212" s="45"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7071,7 +7074,7 @@
     </row>
     <row r="213" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="44"/>
+      <c r="D213" s="45"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7089,7 +7092,7 @@
     </row>
     <row r="214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="44"/>
+      <c r="D214" s="45"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7104,7 +7107,7 @@
     </row>
     <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="44"/>
+      <c r="D215" s="45"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7119,7 +7122,7 @@
     </row>
     <row r="216" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="44"/>
+      <c r="D216" s="45"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7147,7 +7150,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="44" t="s">
+      <c r="D218" s="45" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7161,7 +7164,7 @@
     </row>
     <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="44"/>
+      <c r="D219" s="45"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7176,7 +7179,7 @@
     </row>
     <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="44"/>
+      <c r="D220" s="45"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="44"/>
+      <c r="D221" s="45"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7206,7 +7209,7 @@
     </row>
     <row r="222" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="44"/>
+      <c r="D222" s="45"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="223" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="44"/>
+      <c r="D223" s="45"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7242,7 +7245,7 @@
     </row>
     <row r="224" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="44"/>
+      <c r="D224" s="45"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="44"/>
+      <c r="D225" s="45"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7272,7 +7275,7 @@
     </row>
     <row r="226" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="44"/>
+      <c r="D226" s="45"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="44"/>
+      <c r="D227" s="45"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7317,7 +7320,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="44" t="s">
+      <c r="D229" s="45" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7331,7 +7334,7 @@
     </row>
     <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="44"/>
+      <c r="D230" s="45"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7346,7 +7349,7 @@
     </row>
     <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="44"/>
+      <c r="D231" s="45"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7361,7 +7364,7 @@
     </row>
     <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="44"/>
+      <c r="D232" s="45"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7376,7 +7379,7 @@
     </row>
     <row r="233" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="44"/>
+      <c r="D233" s="45"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7394,7 +7397,7 @@
     </row>
     <row r="234" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="44"/>
+      <c r="D234" s="45"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="44"/>
+      <c r="D235" s="45"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7429,7 +7432,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="44"/>
+      <c r="D236" s="45"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7446,7 +7449,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="44"/>
+      <c r="D237" s="45"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7463,7 +7466,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="44"/>
+      <c r="D238" s="45"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7492,7 +7495,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="44" t="s">
+      <c r="D240" s="45" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7506,7 +7509,7 @@
     </row>
     <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="44"/>
+      <c r="D241" s="45"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7521,7 +7524,7 @@
     </row>
     <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="44"/>
+      <c r="D242" s="45"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7536,7 +7539,7 @@
     </row>
     <row r="243" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="44"/>
+      <c r="D243" s="45"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="244" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="44"/>
+      <c r="D244" s="45"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7569,7 +7572,7 @@
     </row>
     <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="44"/>
+      <c r="D245" s="45"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7597,7 +7600,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="44" t="s">
+      <c r="D247" s="45" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -7611,7 +7614,7 @@
     </row>
     <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="44"/>
+      <c r="D248" s="45"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7626,7 +7629,7 @@
     </row>
     <row r="249" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="44"/>
+      <c r="D249" s="45"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7641,7 +7644,7 @@
     </row>
     <row r="250" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="44"/>
+      <c r="D250" s="45"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7656,7 +7659,7 @@
     </row>
     <row r="251" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="44"/>
+      <c r="D251" s="45"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7674,7 +7677,7 @@
     </row>
     <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="44"/>
+      <c r="D252" s="45"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -7689,7 +7692,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="44"/>
+      <c r="D253" s="45"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -7719,7 +7722,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="44" t="s">
+      <c r="D255" s="45" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -7733,7 +7736,7 @@
     </row>
     <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="44"/>
+      <c r="D256" s="45"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -7748,7 +7751,7 @@
     </row>
     <row r="257" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="44"/>
+      <c r="D257" s="45"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -7763,7 +7766,7 @@
     </row>
     <row r="258" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="44"/>
+      <c r="D258" s="45"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -7778,7 +7781,7 @@
     </row>
     <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="44"/>
+      <c r="D259" s="45"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="44"/>
+      <c r="D260" s="45"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -7813,7 +7816,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="44"/>
+      <c r="D261" s="45"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -7842,7 +7845,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="44" t="s">
+      <c r="D263" s="45" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -7856,7 +7859,7 @@
     </row>
     <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="44"/>
+      <c r="D264" s="45"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="44"/>
+      <c r="D265" s="45"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="44"/>
+      <c r="D266" s="45"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -7901,7 +7904,7 @@
     </row>
     <row r="267" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="44"/>
+      <c r="D267" s="45"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -7919,7 +7922,7 @@
     </row>
     <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="44"/>
+      <c r="D268" s="45"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -7934,7 +7937,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="44"/>
+      <c r="D269" s="45"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -7962,7 +7965,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="44" t="s">
+      <c r="D271" s="45" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -7976,7 +7979,7 @@
     </row>
     <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="44"/>
+      <c r="D272" s="45"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -7991,7 +7994,7 @@
     </row>
     <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="44"/>
+      <c r="D273" s="45"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8006,7 +8009,7 @@
     </row>
     <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="44"/>
+      <c r="D274" s="45"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8021,7 +8024,7 @@
     </row>
     <row r="275" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="44"/>
+      <c r="D275" s="45"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8039,7 +8042,7 @@
     </row>
     <row r="276" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="44"/>
+      <c r="D276" s="45"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8054,7 +8057,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="44"/>
+      <c r="D277" s="45"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8069,7 +8072,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="44"/>
+      <c r="D278" s="45"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8099,7 +8102,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="44" t="s">
+      <c r="D280" s="45" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8113,7 +8116,7 @@
     </row>
     <row r="281" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="44"/>
+      <c r="D281" s="45"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="44"/>
+      <c r="D282" s="45"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8143,7 +8146,7 @@
     </row>
     <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="44"/>
+      <c r="D283" s="45"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="284" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="44"/>
+      <c r="D284" s="45"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8176,7 +8179,7 @@
     </row>
     <row r="285" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="44"/>
+      <c r="D285" s="45"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="286" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="44"/>
+      <c r="D286" s="45"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8208,7 +8211,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="44"/>
+      <c r="D287" s="45"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8237,7 +8240,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="44" t="s">
+      <c r="D289" s="45" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8251,7 +8254,7 @@
     </row>
     <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="44"/>
+      <c r="D290" s="45"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8266,7 +8269,7 @@
     </row>
     <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="44"/>
+      <c r="D291" s="45"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8281,7 +8284,7 @@
     </row>
     <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="44"/>
+      <c r="D292" s="45"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8296,7 +8299,7 @@
     </row>
     <row r="293" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="44"/>
+      <c r="D293" s="45"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8311,7 +8314,7 @@
     </row>
     <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="44"/>
+      <c r="D294" s="45"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8339,7 +8342,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="44" t="s">
+      <c r="D296" s="45" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8353,7 +8356,7 @@
     </row>
     <row r="297" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="44"/>
+      <c r="D297" s="45"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="298" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="44"/>
+      <c r="D298" s="45"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8383,7 +8386,7 @@
     </row>
     <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="44"/>
+      <c r="D299" s="45"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="300" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="44"/>
+      <c r="D300" s="45"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8413,7 +8416,7 @@
     </row>
     <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="44"/>
+      <c r="D301" s="45"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8428,7 +8431,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="44"/>
+      <c r="D302" s="45"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8458,7 +8461,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="44" t="s">
+      <c r="D304" s="45" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8472,7 +8475,7 @@
     </row>
     <row r="305" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="44"/>
+      <c r="D305" s="45"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="44"/>
+      <c r="D306" s="45"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="44"/>
+      <c r="D307" s="45"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8517,7 +8520,7 @@
     </row>
     <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="44"/>
+      <c r="D308" s="45"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="44"/>
+      <c r="D309" s="45"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8549,7 +8552,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="44"/>
+      <c r="D310" s="45"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8585,7 +8588,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="44" t="s">
+      <c r="D312" s="45" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -8599,7 +8602,7 @@
     </row>
     <row r="313" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="44"/>
+      <c r="D313" s="45"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8614,7 +8617,7 @@
     </row>
     <row r="314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="44"/>
+      <c r="D314" s="45"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8629,7 +8632,7 @@
     </row>
     <row r="315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="44"/>
+      <c r="D315" s="45"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8644,7 +8647,7 @@
     </row>
     <row r="316" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="44"/>
+      <c r="D316" s="45"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8662,7 +8665,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="44"/>
+      <c r="D317" s="45"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -8690,7 +8693,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="44" t="s">
+      <c r="D319" s="45" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -8704,7 +8707,7 @@
     </row>
     <row r="320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="44"/>
+      <c r="D320" s="45"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -8719,7 +8722,7 @@
     </row>
     <row r="321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="44"/>
+      <c r="D321" s="45"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -8734,7 +8737,7 @@
     </row>
     <row r="322" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="44"/>
+      <c r="D322" s="45"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -8749,7 +8752,7 @@
     </row>
     <row r="323" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="44"/>
+      <c r="D323" s="45"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -8767,7 +8770,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="44"/>
+      <c r="D324" s="45"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -8782,7 +8785,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="44"/>
+      <c r="D325" s="45"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -8812,7 +8815,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="44" t="s">
+      <c r="D327" s="45" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -8826,7 +8829,7 @@
     </row>
     <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="44"/>
+      <c r="D328" s="45"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -8841,7 +8844,7 @@
     </row>
     <row r="329" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="44"/>
+      <c r="D329" s="45"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -8856,7 +8859,7 @@
     </row>
     <row r="330" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="44"/>
+      <c r="D330" s="45"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -8871,7 +8874,7 @@
     </row>
     <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="44"/>
+      <c r="D331" s="45"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -8889,7 +8892,7 @@
     </row>
     <row r="332" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="44"/>
+      <c r="D332" s="45"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -8906,7 +8909,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="44"/>
+      <c r="D333" s="45"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="44" t="s">
+      <c r="D335" s="45" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -8949,7 +8952,7 @@
     </row>
     <row r="336" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="44"/>
+      <c r="D336" s="45"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="44"/>
+      <c r="D337" s="45"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -8979,7 +8982,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="44"/>
+      <c r="D338" s="45"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -8994,7 +8997,7 @@
     </row>
     <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="44"/>
+      <c r="D339" s="45"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="44"/>
+      <c r="D340" s="45"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9037,7 +9040,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="44" t="s">
+      <c r="D342" s="45" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9051,7 +9054,7 @@
     </row>
     <row r="343" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="44"/>
+      <c r="D343" s="45"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9066,7 +9069,7 @@
     </row>
     <row r="344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="44"/>
+      <c r="D344" s="45"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="44"/>
+      <c r="D345" s="45"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9096,7 +9099,7 @@
     </row>
     <row r="346" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="44"/>
+      <c r="D346" s="45"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9111,7 +9114,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="44"/>
+      <c r="D347" s="45"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="44"/>
+      <c r="D348" s="45"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9156,7 +9159,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="44" t="s">
+      <c r="D350" s="45" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9170,7 +9173,7 @@
     </row>
     <row r="351" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="44"/>
+      <c r="D351" s="45"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9185,7 +9188,7 @@
     </row>
     <row r="352" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="44"/>
+      <c r="D352" s="45"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9200,7 +9203,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="44"/>
+      <c r="D353" s="45"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9215,7 +9218,7 @@
     </row>
     <row r="354" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="44"/>
+      <c r="D354" s="45"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9230,7 +9233,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="44"/>
+      <c r="D355" s="45"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9247,7 +9250,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="44"/>
+      <c r="D356" s="45"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9275,7 +9278,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="44" t="s">
+      <c r="D358" s="45" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9289,7 +9292,7 @@
     </row>
     <row r="359" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="44"/>
+      <c r="D359" s="45"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9304,7 +9307,7 @@
     </row>
     <row r="360" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="44"/>
+      <c r="D360" s="45"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9319,7 +9322,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="44"/>
+      <c r="D361" s="45"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9334,7 +9337,7 @@
     </row>
     <row r="362" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="44"/>
+      <c r="D362" s="45"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9349,7 +9352,7 @@
     </row>
     <row r="363" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="44"/>
+      <c r="D363" s="45"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9377,7 +9380,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="44" t="s">
+      <c r="D365" s="45" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9391,7 +9394,7 @@
     </row>
     <row r="366" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="44"/>
+      <c r="D366" s="45"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9406,7 +9409,7 @@
     </row>
     <row r="367" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="44"/>
+      <c r="D367" s="45"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9421,7 +9424,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="44"/>
+      <c r="D368" s="45"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9436,7 +9439,7 @@
     </row>
     <row r="369" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="44"/>
+      <c r="D369" s="45"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9451,7 +9454,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="44"/>
+      <c r="D370" s="45"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9466,7 +9469,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="44"/>
+      <c r="D371" s="45"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9496,7 +9499,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="44" t="s">
+      <c r="D373" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9510,7 +9513,7 @@
     </row>
     <row r="374" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="44"/>
+      <c r="D374" s="45"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9525,7 +9528,7 @@
     </row>
     <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="44"/>
+      <c r="D375" s="45"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9540,7 +9543,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="44"/>
+      <c r="D376" s="45"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="377" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="44"/>
+      <c r="D377" s="45"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9570,7 +9573,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="44"/>
+      <c r="D378" s="45"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9587,7 +9590,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="44"/>
+      <c r="D379" s="45"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9615,7 +9618,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="44" t="s">
+      <c r="D381" s="45" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -9629,7 +9632,7 @@
     </row>
     <row r="382" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="44"/>
+      <c r="D382" s="45"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9644,7 +9647,7 @@
     </row>
     <row r="383" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="44"/>
+      <c r="D383" s="45"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9659,7 +9662,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="44"/>
+      <c r="D384" s="45"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9674,7 +9677,7 @@
     </row>
     <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="44"/>
+      <c r="D385" s="45"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -9689,7 +9692,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="44"/>
+      <c r="D386" s="45"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -9717,7 +9720,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="44" t="s">
+      <c r="D388" s="45" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -9731,7 +9734,7 @@
     </row>
     <row r="389" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="44"/>
+      <c r="D389" s="45"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="390" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="44"/>
+      <c r="D390" s="45"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -9761,7 +9764,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="44"/>
+      <c r="D391" s="45"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -9776,7 +9779,7 @@
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="44"/>
+      <c r="D392" s="45"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -9791,7 +9794,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="44"/>
+      <c r="D393" s="45"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -9806,7 +9809,7 @@
     </row>
     <row r="394" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="44"/>
+      <c r="D394" s="45"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -9836,7 +9839,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="44" t="s">
+      <c r="D396" s="45" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -9850,7 +9853,7 @@
     </row>
     <row r="397" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="44"/>
+      <c r="D397" s="45"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -9865,7 +9868,7 @@
     </row>
     <row r="398" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="44"/>
+      <c r="D398" s="45"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -9880,7 +9883,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="44"/>
+      <c r="D399" s="45"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -9895,7 +9898,7 @@
     </row>
     <row r="400" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="44"/>
+      <c r="D400" s="45"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="44"/>
+      <c r="D401" s="45"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -9927,7 +9930,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="44"/>
+      <c r="D402" s="45"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -9955,7 +9958,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="44" t="s">
+      <c r="D404" s="45" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -9970,7 +9973,7 @@
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="44"/>
+      <c r="D405" s="45"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -9986,7 +9989,7 @@
     <row r="406" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="44"/>
+      <c r="D406" s="45"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10002,7 +10005,7 @@
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="44"/>
+      <c r="D407" s="45"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10018,7 +10021,7 @@
     <row r="408" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="44"/>
+      <c r="D408" s="45"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10047,7 +10050,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="44" t="s">
+      <c r="D410" s="45" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10062,7 +10065,7 @@
     <row r="411" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="44"/>
+      <c r="D411" s="45"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10078,7 +10081,7 @@
     <row r="412" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="44"/>
+      <c r="D412" s="45"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10094,7 +10097,7 @@
     <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="44"/>
+      <c r="D413" s="45"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10110,7 +10113,7 @@
     <row r="414" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="44"/>
+      <c r="D414" s="45"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10140,7 +10143,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="44" t="s">
+      <c r="D416" s="45" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10155,7 +10158,7 @@
     <row r="417" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="44"/>
+      <c r="D417" s="45"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10171,7 +10174,7 @@
     <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="44"/>
+      <c r="D418" s="45"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10187,7 +10190,7 @@
     <row r="419" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="44"/>
+      <c r="D419" s="45"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10203,7 +10206,7 @@
     <row r="420" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="44"/>
+      <c r="D420" s="45"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10231,7 +10234,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="44" t="s">
+      <c r="D422" s="45" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10246,7 +10249,7 @@
     <row r="423" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="44"/>
+      <c r="D423" s="45"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10262,7 +10265,7 @@
     <row r="424" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="44"/>
+      <c r="D424" s="45"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10278,7 +10281,7 @@
     <row r="425" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="44"/>
+      <c r="D425" s="45"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10294,7 +10297,7 @@
     <row r="426" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="44"/>
+      <c r="D426" s="45"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10322,7 +10325,7 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="44" t="s">
+      <c r="D428" s="45" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
@@ -10337,7 +10340,7 @@
     <row r="429" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="44"/>
+      <c r="D429" s="45"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10353,7 +10356,7 @@
     <row r="430" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="44"/>
+      <c r="D430" s="45"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10369,7 +10372,7 @@
     <row r="431" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="44"/>
+      <c r="D431" s="45"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10385,7 +10388,7 @@
     <row r="432" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="44"/>
+      <c r="D432" s="45"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10415,7 +10418,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="44" t="s">
+      <c r="D434" s="45" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10429,7 +10432,7 @@
     </row>
     <row r="435" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="44"/>
+      <c r="D435" s="45"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10444,7 +10447,7 @@
     </row>
     <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="44"/>
+      <c r="D436" s="45"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="437" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="44"/>
+      <c r="D437" s="45"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10474,7 +10477,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="44"/>
+      <c r="D438" s="45"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10503,7 +10506,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="44" t="s">
+      <c r="D440" s="45" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -10517,7 +10520,7 @@
     </row>
     <row r="441" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="44"/>
+      <c r="D441" s="45"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10532,7 +10535,7 @@
     </row>
     <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="44"/>
+      <c r="D442" s="45"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10547,7 +10550,7 @@
     </row>
     <row r="443" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="44"/>
+      <c r="D443" s="45"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10562,7 +10565,7 @@
     </row>
     <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="44"/>
+      <c r="D444" s="45"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -10590,7 +10593,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="44" t="s">
+      <c r="D446" s="45" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -10604,7 +10607,7 @@
     </row>
     <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="44"/>
+      <c r="D447" s="45"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -10619,7 +10622,7 @@
     </row>
     <row r="448" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="44"/>
+      <c r="D448" s="45"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -10634,7 +10637,7 @@
     </row>
     <row r="449" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="44"/>
+      <c r="D449" s="45"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -10649,7 +10652,7 @@
     </row>
     <row r="450" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="44"/>
+      <c r="D450" s="45"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -10677,7 +10680,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="44" t="s">
+      <c r="D452" s="45" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -10691,7 +10694,7 @@
     </row>
     <row r="453" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="44"/>
+      <c r="D453" s="45"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -10706,7 +10709,7 @@
     </row>
     <row r="454" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="44"/>
+      <c r="D454" s="45"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -10721,7 +10724,7 @@
     </row>
     <row r="455" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="44"/>
+      <c r="D455" s="45"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -10736,7 +10739,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="44"/>
+      <c r="D456" s="45"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -10764,7 +10767,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="44" t="s">
+      <c r="D458" s="45" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -10778,7 +10781,7 @@
     </row>
     <row r="459" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="44"/>
+      <c r="D459" s="45"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -10793,7 +10796,7 @@
     </row>
     <row r="460" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="44"/>
+      <c r="D460" s="45"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -10808,7 +10811,7 @@
     </row>
     <row r="461" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="44"/>
+      <c r="D461" s="45"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -10823,7 +10826,7 @@
     </row>
     <row r="462" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="44"/>
+      <c r="D462" s="45"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -10852,7 +10855,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="44" t="s">
+      <c r="D464" s="45" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -10866,7 +10869,7 @@
     </row>
     <row r="465" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="44"/>
+      <c r="D465" s="45"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -10881,7 +10884,7 @@
     </row>
     <row r="466" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="44"/>
+      <c r="D466" s="45"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -10896,7 +10899,7 @@
     </row>
     <row r="467" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="44"/>
+      <c r="D467" s="45"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -10911,7 +10914,7 @@
     </row>
     <row r="468" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="44"/>
+      <c r="D468" s="45"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -10939,7 +10942,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="44" t="s">
+      <c r="D470" s="45" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -10953,7 +10956,7 @@
     </row>
     <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="44"/>
+      <c r="D471" s="45"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -10968,7 +10971,7 @@
     </row>
     <row r="472" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="44"/>
+      <c r="D472" s="45"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -10983,7 +10986,7 @@
     </row>
     <row r="473" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="44"/>
+      <c r="D473" s="45"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -10998,7 +11001,7 @@
     </row>
     <row r="474" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="44"/>
+      <c r="D474" s="45"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11027,7 +11030,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="44" t="s">
+      <c r="D476" s="45" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11041,7 +11044,7 @@
     </row>
     <row r="477" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="44"/>
+      <c r="D477" s="45"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11056,7 +11059,7 @@
     </row>
     <row r="478" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="44"/>
+      <c r="D478" s="45"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11071,7 +11074,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="44"/>
+      <c r="D479" s="45"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11086,7 +11089,7 @@
     </row>
     <row r="480" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="44"/>
+      <c r="D480" s="45"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11104,7 +11107,7 @@
     </row>
     <row r="481" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="44"/>
+      <c r="D481" s="45"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11123,7 +11126,7 @@
     <row r="482" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="44"/>
+      <c r="D482" s="45"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11154,7 +11157,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="44" t="s">
+      <c r="D484" s="45" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11168,7 +11171,7 @@
     </row>
     <row r="485" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="44"/>
+      <c r="D485" s="45"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11183,7 +11186,7 @@
     </row>
     <row r="486" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="44"/>
+      <c r="D486" s="45"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="44"/>
+      <c r="D487" s="45"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11213,7 +11216,7 @@
     </row>
     <row r="488" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="44"/>
+      <c r="D488" s="45"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11231,7 +11234,7 @@
     </row>
     <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="44"/>
+      <c r="D489" s="45"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11250,7 +11253,7 @@
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="44"/>
+      <c r="D490" s="45"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11281,7 +11284,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="44" t="s">
+      <c r="D492" s="45" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -11295,7 +11298,7 @@
     </row>
     <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="44"/>
+      <c r="D493" s="45"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11310,7 +11313,7 @@
     </row>
     <row r="494" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="44"/>
+      <c r="D494" s="45"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11325,7 +11328,7 @@
     </row>
     <row r="495" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="44"/>
+      <c r="D495" s="45"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11340,7 +11343,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="44"/>
+      <c r="D496" s="45"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11355,7 +11358,7 @@
     </row>
     <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="44"/>
+      <c r="D497" s="45"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11371,7 +11374,7 @@
     <row r="498" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="44"/>
+      <c r="D498" s="45"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11399,7 +11402,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="44" t="s">
+      <c r="D500" s="45" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -11413,7 +11416,7 @@
     </row>
     <row r="501" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="44"/>
+      <c r="D501" s="45"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -11428,7 +11431,7 @@
     </row>
     <row r="502" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="44"/>
+      <c r="D502" s="45"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -11443,7 +11446,7 @@
     </row>
     <row r="503" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="44"/>
+      <c r="D503" s="45"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -11458,7 +11461,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="44"/>
+      <c r="D504" s="45"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="44"/>
+      <c r="D505" s="45"/>
       <c r="E505" s="19">
         <v>6</v>
       </c>
@@ -11502,7 +11505,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="44" t="s">
+      <c r="D507" s="45" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -11516,7 +11519,7 @@
     </row>
     <row r="508" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="44"/>
+      <c r="D508" s="45"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -11531,7 +11534,7 @@
     </row>
     <row r="509" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="44"/>
+      <c r="D509" s="45"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -11546,7 +11549,7 @@
     </row>
     <row r="510" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="44"/>
+      <c r="D510" s="45"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -11561,7 +11564,7 @@
     </row>
     <row r="511" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="44"/>
+      <c r="D511" s="45"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -11576,7 +11579,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="44"/>
+      <c r="D512" s="45"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -11604,7 +11607,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="44" t="s">
+      <c r="D514" s="45" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -11621,7 +11624,7 @@
     </row>
     <row r="515" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="44"/>
+      <c r="D515" s="45"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -11639,7 +11642,7 @@
     </row>
     <row r="516" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="44"/>
+      <c r="D516" s="45"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -11667,7 +11670,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="44" t="s">
+      <c r="D518" s="45" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -11684,7 +11687,7 @@
     </row>
     <row r="519" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="44"/>
+      <c r="D519" s="45"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -11702,7 +11705,7 @@
     </row>
     <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="44"/>
+      <c r="D520" s="45"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="521" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="44"/>
+      <c r="D521" s="45"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -11736,7 +11739,7 @@
     <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="44"/>
+      <c r="D522" s="45"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -11751,7 +11754,7 @@
     </row>
     <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="44"/>
+      <c r="D523" s="45"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -11769,7 +11772,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="44"/>
+      <c r="D524" s="45"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -11797,7 +11800,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="44" t="s">
+      <c r="D526" s="45" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -11814,7 +11817,7 @@
     </row>
     <row r="527" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="44"/>
+      <c r="D527" s="45"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -11832,7 +11835,7 @@
     </row>
     <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="44"/>
+      <c r="D528" s="45"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -11860,7 +11863,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="44" t="s">
+      <c r="D530" s="45" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -11877,7 +11880,7 @@
     </row>
     <row r="531" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="44"/>
+      <c r="D531" s="45"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -11895,7 +11898,7 @@
     </row>
     <row r="532" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="44"/>
+      <c r="D532" s="45"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -11910,7 +11913,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="44"/>
+      <c r="D533" s="45"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -11926,7 +11929,7 @@
     <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="44"/>
+      <c r="D534" s="45"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -11954,7 +11957,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="44" t="s">
+      <c r="D536" s="45" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -11971,7 +11974,7 @@
     </row>
     <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="44"/>
+      <c r="D537" s="45"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -11989,7 +11992,7 @@
     </row>
     <row r="538" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="44"/>
+      <c r="D538" s="45"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12004,7 +12007,7 @@
     </row>
     <row r="539" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="44"/>
+      <c r="D539" s="45"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -12023,7 +12026,7 @@
     <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="44"/>
+      <c r="D540" s="45"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12039,7 +12042,7 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="44"/>
+      <c r="D541" s="45"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12067,7 +12070,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="44" t="s">
+      <c r="D543" s="45" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12084,7 +12087,7 @@
     </row>
     <row r="544" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="44"/>
+      <c r="D544" s="45"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12102,7 +12105,7 @@
     </row>
     <row r="545" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="44"/>
+      <c r="D545" s="45"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12120,7 +12123,7 @@
     </row>
     <row r="546" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="44"/>
+      <c r="D546" s="45"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12139,7 +12142,7 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="44"/>
+      <c r="D547" s="45"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12155,7 +12158,7 @@
     <row r="548" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="44"/>
+      <c r="D548" s="45"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12186,7 +12189,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="44" t="s">
+      <c r="D550" s="45" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -12203,7 +12206,7 @@
     </row>
     <row r="551" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="44"/>
+      <c r="D551" s="45"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12221,7 +12224,7 @@
     </row>
     <row r="552" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="44"/>
+      <c r="D552" s="45"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12239,7 +12242,7 @@
     </row>
     <row r="553" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="44"/>
+      <c r="D553" s="45"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12258,7 +12261,7 @@
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="44"/>
+      <c r="D554" s="45"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -12274,7 +12277,7 @@
     <row r="555" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="44"/>
+      <c r="D555" s="45"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="556" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="44"/>
+      <c r="D556" s="45"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -12307,7 +12310,7 @@
     </row>
     <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="44"/>
+      <c r="D557" s="45"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -12326,7 +12329,7 @@
     <row r="558" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="44"/>
+      <c r="D558" s="45"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -12344,7 +12347,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="44"/>
+      <c r="D559" s="45"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -12372,7 +12375,7 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="44" t="s">
+      <c r="D561" s="45" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
@@ -12389,7 +12392,7 @@
     </row>
     <row r="562" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="44"/>
+      <c r="D562" s="45"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="563" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="44"/>
+      <c r="D563" s="45"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -12425,7 +12428,7 @@
     </row>
     <row r="564" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="44"/>
+      <c r="D564" s="45"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -12444,7 +12447,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="44"/>
+      <c r="D565" s="45"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -12460,7 +12463,7 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="44"/>
+      <c r="D566" s="45"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -12475,7 +12478,7 @@
     </row>
     <row r="567" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="44"/>
+      <c r="D567" s="45"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -12490,7 +12493,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="44"/>
+      <c r="D568" s="45"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -12518,7 +12521,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="44" t="s">
+      <c r="D570" s="45" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -12535,7 +12538,7 @@
     </row>
     <row r="571" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="44"/>
+      <c r="D571" s="45"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -12553,7 +12556,7 @@
     </row>
     <row r="572" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="44"/>
+      <c r="D572" s="45"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -12568,7 +12571,7 @@
     </row>
     <row r="573" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="44"/>
+      <c r="D573" s="45"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -12596,7 +12599,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="44" t="s">
+      <c r="D575" s="45" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -12613,7 +12616,7 @@
     </row>
     <row r="576" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="44"/>
+      <c r="D576" s="45"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -12631,7 +12634,7 @@
     </row>
     <row r="577" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="44"/>
+      <c r="D577" s="45"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -12646,7 +12649,7 @@
     </row>
     <row r="578" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="44"/>
+      <c r="D578" s="45"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -12661,7 +12664,7 @@
     </row>
     <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="44"/>
+      <c r="D579" s="45"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -12689,7 +12692,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="44" t="s">
+      <c r="D581" s="45" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -12706,7 +12709,7 @@
     </row>
     <row r="582" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="44"/>
+      <c r="D582" s="45"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -12724,7 +12727,7 @@
     </row>
     <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="44"/>
+      <c r="D583" s="45"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -12742,7 +12745,7 @@
     </row>
     <row r="584" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="44"/>
+      <c r="D584" s="45"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -12757,7 +12760,7 @@
     </row>
     <row r="585" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="44"/>
+      <c r="D585" s="45"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -12785,7 +12788,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="44" t="s">
+      <c r="D587" s="45" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -12802,7 +12805,7 @@
     </row>
     <row r="588" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="44"/>
+      <c r="D588" s="45"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -12820,7 +12823,7 @@
     </row>
     <row r="589" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="44"/>
+      <c r="D589" s="45"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -12835,7 +12838,7 @@
     </row>
     <row r="590" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="44"/>
+      <c r="D590" s="45"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -12850,7 +12853,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="44"/>
+      <c r="D591" s="45"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -12865,7 +12868,7 @@
     </row>
     <row r="592" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="44"/>
+      <c r="D592" s="45"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -12893,7 +12896,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="44" t="s">
+      <c r="D594" s="45" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -12910,7 +12913,7 @@
     </row>
     <row r="595" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="44"/>
+      <c r="D595" s="45"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -12928,7 +12931,7 @@
     </row>
     <row r="596" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="44"/>
+      <c r="D596" s="45"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -12943,7 +12946,7 @@
     </row>
     <row r="597" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="44"/>
+      <c r="D597" s="45"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -12958,7 +12961,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="44"/>
+      <c r="D598" s="45"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -12973,7 +12976,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="44"/>
+      <c r="D599" s="45"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13001,7 +13004,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="44" t="s">
+      <c r="D601" s="45" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -13018,7 +13021,7 @@
     </row>
     <row r="602" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="44"/>
+      <c r="D602" s="45"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -13033,7 +13036,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="44"/>
+      <c r="D603" s="45"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="44" t="s">
+      <c r="D605" s="45" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -13078,7 +13081,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="44"/>
+      <c r="D606" s="45"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -13096,7 +13099,7 @@
     </row>
     <row r="607" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="44"/>
+      <c r="D607" s="45"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -13111,7 +13114,7 @@
     </row>
     <row r="608" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="44"/>
+      <c r="D608" s="45"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -13140,7 +13143,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="44" t="s">
+      <c r="D610" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -13157,7 +13160,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="44"/>
+      <c r="D611" s="45"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -13175,7 +13178,7 @@
     </row>
     <row r="612" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="44"/>
+      <c r="D612" s="45"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -13190,7 +13193,7 @@
     </row>
     <row r="613" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="44"/>
+      <c r="D613" s="45"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -13205,7 +13208,7 @@
     </row>
     <row r="614" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="31"/>
-      <c r="D614" s="44"/>
+      <c r="D614" s="45"/>
       <c r="E614" s="19">
         <v>5</v>
       </c>
@@ -13223,7 +13226,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="28" t="s">
         <v>494</v>
       </c>
@@ -13233,7 +13236,7 @@
       <c r="C616" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D616" s="44" t="s">
+      <c r="D616" s="45" t="s">
         <v>495</v>
       </c>
       <c r="E616" s="19">
@@ -13250,7 +13253,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B617" s="38"/>
-      <c r="D617" s="44"/>
+      <c r="D617" s="45"/>
       <c r="E617" s="19">
         <v>2</v>
       </c>
@@ -13265,7 +13268,7 @@
     </row>
     <row r="618" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B618" s="38"/>
-      <c r="D618" s="44"/>
+      <c r="D618" s="45"/>
       <c r="E618" s="19">
         <v>3</v>
       </c>
@@ -13280,7 +13283,7 @@
     </row>
     <row r="619" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B619" s="37"/>
-      <c r="D619" s="44"/>
+      <c r="D619" s="45"/>
       <c r="E619" s="19">
         <v>4</v>
       </c>
@@ -13295,7 +13298,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B620" s="37"/>
-      <c r="D620" s="44"/>
+      <c r="D620" s="45"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
@@ -13314,7 +13317,7 @@
       <c r="C622" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D622" s="44" t="s">
+      <c r="D622" s="45" t="s">
         <v>502</v>
       </c>
       <c r="E622" s="19">
@@ -13331,7 +13334,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B623" s="40"/>
-      <c r="D623" s="44"/>
+      <c r="D623" s="45"/>
       <c r="E623" s="19">
         <v>2</v>
       </c>
@@ -13346,7 +13349,7 @@
     </row>
     <row r="624" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B624" s="40"/>
-      <c r="D624" s="44"/>
+      <c r="D624" s="45"/>
       <c r="E624" s="19">
         <v>3</v>
       </c>
@@ -13361,7 +13364,7 @@
     </row>
     <row r="625" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B625" s="39"/>
-      <c r="D625" s="44"/>
+      <c r="D625" s="45"/>
       <c r="E625" s="19">
         <v>4</v>
       </c>
@@ -13376,7 +13379,7 @@
     </row>
     <row r="626" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B626" s="39"/>
-      <c r="D626" s="44"/>
+      <c r="D626" s="45"/>
       <c r="E626" s="19">
         <v>5</v>
       </c>
@@ -13391,7 +13394,7 @@
     </row>
     <row r="627" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="31"/>
-      <c r="D627" s="44"/>
+      <c r="D627" s="45"/>
       <c r="E627" s="19">
         <v>6</v>
       </c>
@@ -13419,7 +13422,7 @@
       <c r="C629" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D629" s="44" t="s">
+      <c r="D629" s="45" t="s">
         <v>508</v>
       </c>
       <c r="E629" s="19">
@@ -13436,7 +13439,7 @@
     </row>
     <row r="630" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B630" s="40"/>
-      <c r="D630" s="44"/>
+      <c r="D630" s="45"/>
       <c r="E630" s="19">
         <v>2</v>
       </c>
@@ -13451,7 +13454,7 @@
     </row>
     <row r="631" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B631" s="40"/>
-      <c r="D631" s="44"/>
+      <c r="D631" s="45"/>
       <c r="E631" s="19">
         <v>3</v>
       </c>
@@ -13466,7 +13469,7 @@
     </row>
     <row r="632" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B632" s="39"/>
-      <c r="D632" s="44"/>
+      <c r="D632" s="45"/>
       <c r="E632" s="19">
         <v>4</v>
       </c>
@@ -13494,7 +13497,7 @@
       <c r="C634" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D634" s="44" t="s">
+      <c r="D634" s="45" t="s">
         <v>516</v>
       </c>
       <c r="E634" s="19">
@@ -13511,7 +13514,7 @@
     </row>
     <row r="635" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B635" s="40"/>
-      <c r="D635" s="44"/>
+      <c r="D635" s="45"/>
       <c r="E635" s="19">
         <v>2</v>
       </c>
@@ -13526,7 +13529,7 @@
     </row>
     <row r="636" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B636" s="40"/>
-      <c r="D636" s="44"/>
+      <c r="D636" s="45"/>
       <c r="E636" s="19">
         <v>3</v>
       </c>
@@ -13541,7 +13544,7 @@
     </row>
     <row r="637" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B637" s="39"/>
-      <c r="D637" s="44"/>
+      <c r="D637" s="45"/>
       <c r="E637" s="19">
         <v>4</v>
       </c>
@@ -13556,7 +13559,7 @@
     </row>
     <row r="638" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B638" s="39"/>
-      <c r="D638" s="44"/>
+      <c r="D638" s="45"/>
       <c r="E638" s="19">
         <v>5</v>
       </c>
@@ -13584,7 +13587,7 @@
       <c r="C640" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D640" s="44" t="s">
+      <c r="D640" s="45" t="s">
         <v>520</v>
       </c>
       <c r="E640" s="19">
@@ -13602,7 +13605,7 @@
     <row r="641" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="28"/>
       <c r="B641" s="40"/>
-      <c r="D641" s="44"/>
+      <c r="D641" s="45"/>
       <c r="E641" s="19">
         <v>2</v>
       </c>
@@ -13618,7 +13621,7 @@
     <row r="642" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A642" s="28"/>
       <c r="B642" s="40"/>
-      <c r="D642" s="44"/>
+      <c r="D642" s="45"/>
       <c r="E642" s="19">
         <v>3</v>
       </c>
@@ -13633,7 +13636,7 @@
     </row>
     <row r="643" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B643" s="40"/>
-      <c r="D643" s="44"/>
+      <c r="D643" s="45"/>
       <c r="E643" s="19">
         <v>4</v>
       </c>
@@ -13648,7 +13651,7 @@
     </row>
     <row r="644" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B644" s="40"/>
-      <c r="D644" s="44"/>
+      <c r="D644" s="45"/>
       <c r="E644" s="19">
         <v>5</v>
       </c>
@@ -13663,7 +13666,7 @@
     </row>
     <row r="645" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B645" s="39"/>
-      <c r="D645" s="44"/>
+      <c r="D645" s="45"/>
       <c r="E645" s="19">
         <v>6</v>
       </c>
@@ -13678,7 +13681,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B646" s="39"/>
-      <c r="D646" s="44"/>
+      <c r="D646" s="45"/>
       <c r="E646" s="19">
         <v>7</v>
       </c>
@@ -13706,7 +13709,7 @@
       <c r="C648" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D648" s="44" t="s">
+      <c r="D648" s="45" t="s">
         <v>534</v>
       </c>
       <c r="E648" s="19">
@@ -13723,7 +13726,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B649" s="40"/>
-      <c r="D649" s="44"/>
+      <c r="D649" s="45"/>
       <c r="E649" s="19">
         <v>2</v>
       </c>
@@ -13738,7 +13741,7 @@
     </row>
     <row r="650" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="44"/>
+      <c r="D650" s="45"/>
       <c r="E650" s="19">
         <v>3</v>
       </c>
@@ -13766,7 +13769,7 @@
       <c r="C652" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D652" s="44" t="s">
+      <c r="D652" s="45" t="s">
         <v>541</v>
       </c>
       <c r="E652" s="19">
@@ -13783,7 +13786,7 @@
     </row>
     <row r="653" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B653" s="40"/>
-      <c r="D653" s="44"/>
+      <c r="D653" s="45"/>
       <c r="E653" s="19">
         <v>2</v>
       </c>
@@ -13798,7 +13801,7 @@
     </row>
     <row r="654" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B654" s="40"/>
-      <c r="D654" s="44"/>
+      <c r="D654" s="45"/>
       <c r="E654" s="19">
         <v>3</v>
       </c>
@@ -13826,7 +13829,7 @@
       <c r="C656" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D656" s="44" t="s">
+      <c r="D656" s="45" t="s">
         <v>549</v>
       </c>
       <c r="E656" s="19">
@@ -13843,7 +13846,7 @@
     </row>
     <row r="657" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B657" s="40"/>
-      <c r="D657" s="44"/>
+      <c r="D657" s="45"/>
       <c r="E657" s="19">
         <v>2</v>
       </c>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="658" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B658" s="40"/>
-      <c r="D658" s="44"/>
+      <c r="D658" s="45"/>
       <c r="E658" s="19">
         <v>3</v>
       </c>
@@ -13873,7 +13876,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B659" s="39"/>
-      <c r="D659" s="44"/>
+      <c r="D659" s="45"/>
       <c r="E659" s="19">
         <v>4</v>
       </c>
@@ -13901,7 +13904,7 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="44" t="s">
+      <c r="D661" s="45" t="s">
         <v>555</v>
       </c>
       <c r="E661" s="19">
@@ -13918,7 +13921,7 @@
     </row>
     <row r="662" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="44"/>
+      <c r="D662" s="45"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
@@ -13933,7 +13936,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="44"/>
+      <c r="D663" s="45"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -13956,7 +13959,7 @@
       <c r="C664" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D664" s="44" t="s">
+      <c r="D664" s="45" t="s">
         <v>558</v>
       </c>
       <c r="E664" s="19">
@@ -13973,7 +13976,7 @@
     </row>
     <row r="665" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="40"/>
-      <c r="D665" s="44"/>
+      <c r="D665" s="45"/>
       <c r="E665" s="19">
         <v>2</v>
       </c>
@@ -13988,7 +13991,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B666" s="40"/>
-      <c r="D666" s="44"/>
+      <c r="D666" s="45"/>
       <c r="E666" s="19">
         <v>3</v>
       </c>
@@ -14014,7 +14017,7 @@
       <c r="C668" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D668" s="44" t="s">
+      <c r="D668" s="45" t="s">
         <v>561</v>
       </c>
       <c r="E668" s="19">
@@ -14030,7 +14033,7 @@
     </row>
     <row r="669" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B669" s="40"/>
-      <c r="D669" s="44"/>
+      <c r="D669" s="45"/>
       <c r="E669" s="19">
         <v>2</v>
       </c>
@@ -14044,7 +14047,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B670" s="40"/>
-      <c r="D670" s="44"/>
+      <c r="D670" s="45"/>
       <c r="E670" s="19">
         <v>3</v>
       </c>
@@ -14070,7 +14073,7 @@
       <c r="C672" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D672" s="44" t="s">
+      <c r="D672" s="45" t="s">
         <v>564</v>
       </c>
       <c r="E672" s="19">
@@ -14086,7 +14089,7 @@
     </row>
     <row r="673" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B673" s="40"/>
-      <c r="D673" s="44"/>
+      <c r="D673" s="45"/>
       <c r="E673" s="19">
         <v>2</v>
       </c>
@@ -14103,7 +14106,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="44"/>
+      <c r="D674" s="45"/>
       <c r="E674" s="19">
         <v>3</v>
       </c>
@@ -14129,7 +14132,7 @@
       <c r="C676" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D676" s="44" t="s">
+      <c r="D676" s="45" t="s">
         <v>572</v>
       </c>
       <c r="E676" s="19">
@@ -14145,7 +14148,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B677" s="40"/>
-      <c r="D677" s="44"/>
+      <c r="D677" s="45"/>
       <c r="E677" s="19">
         <v>2</v>
       </c>
@@ -14159,7 +14162,7 @@
     </row>
     <row r="678" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B678" s="40"/>
-      <c r="D678" s="44"/>
+      <c r="D678" s="45"/>
       <c r="E678" s="19">
         <v>3</v>
       </c>
@@ -14185,7 +14188,7 @@
       <c r="C680" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D680" s="44" t="s">
+      <c r="D680" s="45" t="s">
         <v>580</v>
       </c>
       <c r="E680" s="19">
@@ -14201,7 +14204,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B681" s="40"/>
-      <c r="D681" s="44"/>
+      <c r="D681" s="45"/>
       <c r="E681" s="19">
         <v>2</v>
       </c>
@@ -14215,7 +14218,7 @@
     </row>
     <row r="682" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B682" s="40"/>
-      <c r="D682" s="44"/>
+      <c r="D682" s="45"/>
       <c r="E682" s="19">
         <v>3</v>
       </c>
@@ -14241,7 +14244,7 @@
       <c r="C684" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D684" s="44" t="s">
+      <c r="D684" s="45" t="s">
         <v>585</v>
       </c>
       <c r="E684" s="19">
@@ -14257,7 +14260,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B685" s="40"/>
-      <c r="D685" s="44"/>
+      <c r="D685" s="45"/>
       <c r="E685" s="19">
         <v>2</v>
       </c>
@@ -14271,7 +14274,7 @@
     </row>
     <row r="686" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B686" s="40"/>
-      <c r="D686" s="44"/>
+      <c r="D686" s="45"/>
       <c r="E686" s="19">
         <v>3</v>
       </c>
@@ -14297,7 +14300,7 @@
       <c r="C688" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D688" s="44" t="s">
+      <c r="D688" s="45" t="s">
         <v>585</v>
       </c>
       <c r="E688" s="19">
@@ -14313,7 +14316,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B689" s="42"/>
-      <c r="D689" s="44"/>
+      <c r="D689" s="45"/>
       <c r="E689" s="19">
         <v>2</v>
       </c>
@@ -14327,7 +14330,7 @@
     </row>
     <row r="690" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B690" s="42"/>
-      <c r="D690" s="44"/>
+      <c r="D690" s="45"/>
       <c r="E690" s="19">
         <v>3</v>
       </c>
@@ -14353,7 +14356,7 @@
       <c r="C692" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D692" s="44" t="s">
+      <c r="D692" s="45" t="s">
         <v>599</v>
       </c>
       <c r="E692" s="19">
@@ -14369,7 +14372,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B693" s="31"/>
-      <c r="D693" s="44"/>
+      <c r="D693" s="45"/>
       <c r="E693" s="19">
         <v>2</v>
       </c>
@@ -14383,7 +14386,7 @@
     </row>
     <row r="694" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B694" s="31"/>
-      <c r="D694" s="44"/>
+      <c r="D694" s="45"/>
       <c r="E694" s="19">
         <v>3</v>
       </c>
@@ -14397,7 +14400,7 @@
     </row>
     <row r="695" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B695" s="31"/>
-      <c r="D695" s="44"/>
+      <c r="D695" s="45"/>
       <c r="E695" s="19">
         <v>4</v>
       </c>
@@ -14411,7 +14414,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B696" s="31"/>
-      <c r="D696" s="44"/>
+      <c r="D696" s="45"/>
       <c r="K696" s="2"/>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
@@ -14428,7 +14431,7 @@
       <c r="C698" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D698" s="44" t="s">
+      <c r="D698" s="45" t="s">
         <v>593</v>
       </c>
       <c r="E698" s="19">
@@ -14444,7 +14447,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B699" s="31"/>
-      <c r="D699" s="44"/>
+      <c r="D699" s="45"/>
       <c r="E699" s="19">
         <v>2</v>
       </c>
@@ -14458,7 +14461,7 @@
     </row>
     <row r="700" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B700" s="31"/>
-      <c r="D700" s="44"/>
+      <c r="D700" s="45"/>
       <c r="E700" s="19">
         <v>3</v>
       </c>
@@ -14471,7 +14474,7 @@
       <c r="K700" s="2"/>
     </row>
     <row r="701" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D701" s="44"/>
+      <c r="D701" s="45"/>
       <c r="E701" s="19">
         <v>4</v>
       </c>
@@ -14484,7 +14487,7 @@
       <c r="K701" s="2"/>
     </row>
     <row r="702" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D702" s="44"/>
+      <c r="D702" s="45"/>
       <c r="E702" s="19">
         <v>5</v>
       </c>
@@ -14497,7 +14500,7 @@
       <c r="K702" s="2"/>
     </row>
     <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D703" s="44"/>
+      <c r="D703" s="45"/>
       <c r="E703" s="19">
         <v>6</v>
       </c>
@@ -14512,116 +14515,99 @@
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="28"/>
       <c r="B705" s="42"/>
-      <c r="D705" s="44"/>
-      <c r="E705" s="19">
-        <v>1</v>
-      </c>
-      <c r="F705" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="G705" s="19" t="s">
-        <v>594</v>
-      </c>
+      <c r="D705" s="45"/>
       <c r="K705" s="2"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B706" s="41"/>
-      <c r="D706" s="44"/>
-      <c r="E706" s="19">
-        <v>2</v>
-      </c>
-      <c r="F706" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="G706" s="19" t="s">
-        <v>598</v>
-      </c>
+      <c r="D706" s="45"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B707" s="41"/>
-      <c r="D707" s="44"/>
-      <c r="E707" s="19">
-        <v>3</v>
-      </c>
-      <c r="F707" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="G707" s="19" t="s">
-        <v>499</v>
-      </c>
+      <c r="D707" s="45"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B708" s="41"/>
-      <c r="D708" s="44"/>
-      <c r="E708" s="19">
-        <v>4</v>
-      </c>
-      <c r="F708" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="G708" s="19" t="s">
-        <v>595</v>
-      </c>
+      <c r="D708" s="45"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B709" s="41"/>
-      <c r="D709" s="44"/>
-      <c r="E709" s="19">
-        <v>5</v>
-      </c>
-      <c r="F709" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="G709" s="19" t="s">
-        <v>596</v>
-      </c>
+      <c r="D709" s="45"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B710" s="41"/>
-      <c r="D710" s="44"/>
-      <c r="E710" s="19">
-        <v>6</v>
-      </c>
-      <c r="F710" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="G710" s="19" t="s">
-        <v>595</v>
-      </c>
+      <c r="D710" s="45"/>
       <c r="K710" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D688:D690"/>
-    <mergeCell ref="D692:D696"/>
-    <mergeCell ref="D698:D703"/>
-    <mergeCell ref="D705:D710"/>
-    <mergeCell ref="D680:D682"/>
-    <mergeCell ref="D684:D686"/>
-    <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D664:D666"/>
-    <mergeCell ref="D668:D670"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="D676:D678"/>
-    <mergeCell ref="D640:D646"/>
-    <mergeCell ref="D648:D650"/>
-    <mergeCell ref="D652:D654"/>
-    <mergeCell ref="D656:D659"/>
-    <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D622:D627"/>
-    <mergeCell ref="D629:D632"/>
-    <mergeCell ref="D634:D638"/>
-    <mergeCell ref="D616:D620"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D536:D541"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="D440:D444"/>
+    <mergeCell ref="D170:D180"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="D127:D133"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="D146:D156"/>
+    <mergeCell ref="D158:D168"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D280:D287"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D518:D524"/>
     <mergeCell ref="D526:D528"/>
@@ -14638,66 +14624,29 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="D440:D444"/>
-    <mergeCell ref="D170:D180"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="D135:D144"/>
-    <mergeCell ref="D146:D156"/>
-    <mergeCell ref="D158:D168"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D536:D541"/>
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D640:D646"/>
+    <mergeCell ref="D648:D650"/>
+    <mergeCell ref="D652:D654"/>
+    <mergeCell ref="D656:D659"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D622:D627"/>
+    <mergeCell ref="D629:D632"/>
+    <mergeCell ref="D634:D638"/>
+    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D664:D666"/>
+    <mergeCell ref="D668:D670"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="D676:D678"/>
+    <mergeCell ref="D688:D690"/>
+    <mergeCell ref="D692:D696"/>
+    <mergeCell ref="D698:D703"/>
+    <mergeCell ref="D705:D710"/>
+    <mergeCell ref="D680:D682"/>
+    <mergeCell ref="D684:D686"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
@@ -14726,8 +14675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E4012D-3B3C-42E0-AEEA-687273CFD5CA}">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14738,111 +14687,69 @@
     <col min="8" max="8" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>33</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="19">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="19">
-        <v>3</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="19">
-        <v>4</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>285</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="19">
-        <v>5</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>289</v>
-      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="19">
-        <v>6</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="25"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -14851,251 +14758,150 @@
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="28"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>285</v>
-      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19">
-        <v>5</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>289</v>
-      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="19">
-        <v>6</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19">
-        <v>7</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="25"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="28"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="19">
-        <v>2</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="19">
-        <v>4</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>285</v>
-      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19">
-        <v>5</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>289</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="19">
-        <v>6</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>286</v>
-      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="44"/>
-      <c r="E23" s="19">
-        <v>7</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>291</v>
-      </c>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="D9:D15"/>
-  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22" xr:uid="{3202BB11-E3FF-4A2C-A7E0-4641D9C43867}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
